--- a/upload_member/Member.xlsx
+++ b/upload_member/Member.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="1371">
   <si>
     <t>nomb</t>
   </si>
@@ -219,24 +219,111 @@
     <t>0011012</t>
   </si>
   <si>
+    <t>HARJANTO</t>
+  </si>
+  <si>
+    <t>jl. merpati denpasar</t>
+  </si>
+  <si>
+    <t>085700457955</t>
+  </si>
+  <si>
+    <t>3310230401780001</t>
+  </si>
+  <si>
+    <t>21-Sep-18</t>
+  </si>
+  <si>
     <t>0011013</t>
   </si>
   <si>
+    <t>MOH. SODIKIN</t>
+  </si>
+  <si>
+    <t>JL. TUKAD NYALIK NO. 14 SANUR DENPASAR</t>
+  </si>
+  <si>
+    <t>082147754695</t>
+  </si>
+  <si>
+    <t>3510121612830003</t>
+  </si>
+  <si>
     <t>0011014</t>
   </si>
   <si>
+    <t>TEGUH RASIONA</t>
+  </si>
+  <si>
+    <t>BR. BERNASI BUDUK MENGWI BADUNG</t>
+  </si>
+  <si>
+    <t>081236909909</t>
+  </si>
+  <si>
+    <t>5103021706680010</t>
+  </si>
+  <si>
     <t>0011015</t>
   </si>
   <si>
+    <t>NI MADE MULYATI</t>
+  </si>
+  <si>
+    <t>JL. PULAU ADI NO. 8 DENPASAR</t>
+  </si>
+  <si>
+    <t>081338266858</t>
+  </si>
+  <si>
+    <t>5171037009780019</t>
+  </si>
+  <si>
     <t>0011016</t>
   </si>
   <si>
+    <t>TJANDRA HARTONO</t>
+  </si>
+  <si>
+    <t>JL. IMAM BONJOL NO. 337 DENPASAR</t>
+  </si>
+  <si>
+    <t>081999003000</t>
+  </si>
+  <si>
+    <t>8171030805680025</t>
+  </si>
+  <si>
     <t>0011017</t>
   </si>
   <si>
+    <t>I GUSTI AGUNG GEDE EKA</t>
+  </si>
+  <si>
+    <t>BR. BADUNG SIBANG GEDE</t>
+  </si>
+  <si>
+    <t>085739730300</t>
+  </si>
+  <si>
+    <t>5103031608770002</t>
+  </si>
+  <si>
     <t>0011018</t>
   </si>
   <si>
+    <t>MUJIYONO</t>
+  </si>
+  <si>
+    <t>JL. IMAM BONJOL NO. 264 DENPASAR</t>
+  </si>
+  <si>
+    <t>085102505522</t>
+  </si>
+  <si>
+    <t>5171022007770001</t>
+  </si>
+  <si>
     <t>0011019</t>
   </si>
   <si>
@@ -519,12 +606,51 @@
     <t>0021013</t>
   </si>
   <si>
+    <t>I KETUT SIMPEN</t>
+  </si>
+  <si>
+    <t>perum cemara giri blok 8/89 br. kaja dalung</t>
+  </si>
+  <si>
+    <t>081999717524</t>
+  </si>
+  <si>
+    <t>5103061708690007</t>
+  </si>
+  <si>
+    <t>20-Sep-18</t>
+  </si>
+  <si>
     <t>0021014</t>
   </si>
   <si>
+    <t>I KETUT SUARTA</t>
+  </si>
+  <si>
+    <t>Jl. Juwet Sari Gg Lembu Sora</t>
+  </si>
+  <si>
+    <t>085953821398</t>
+  </si>
+  <si>
+    <t>5105040107680117</t>
+  </si>
+  <si>
     <t>0021015</t>
   </si>
   <si>
+    <t>I NYOMAN WIADNYANA</t>
+  </si>
+  <si>
+    <t>Br. Suluban, Pecatu</t>
+  </si>
+  <si>
+    <t>081916297333</t>
+  </si>
+  <si>
+    <t>5103051311860004</t>
+  </si>
+  <si>
     <t>0021016</t>
   </si>
   <si>
@@ -720,24 +846,108 @@
     <t>0031012</t>
   </si>
   <si>
+    <t>KRIS ISTISRTANTO</t>
+  </si>
+  <si>
+    <t>JL ZAMRUD II D NO 6 DPS</t>
+  </si>
+  <si>
+    <t>081934374629</t>
+  </si>
+  <si>
+    <t>5103020811810002</t>
+  </si>
+  <si>
     <t>0031013</t>
   </si>
   <si>
+    <t>MOH SALAM</t>
+  </si>
+  <si>
+    <t>JL SUBUR GG.MERAH HATI IB</t>
+  </si>
+  <si>
+    <t>081239666297</t>
+  </si>
+  <si>
+    <t>5171031403690002</t>
+  </si>
+  <si>
     <t>0031014</t>
   </si>
   <si>
+    <t>USMAN</t>
+  </si>
+  <si>
+    <t>JL RISMIMUKA BARAT NO.16X</t>
+  </si>
+  <si>
+    <t>081337075145</t>
+  </si>
+  <si>
+    <t>5171033112770083</t>
+  </si>
+  <si>
     <t>0031015</t>
   </si>
   <si>
+    <t>MISARIANTO</t>
+  </si>
+  <si>
+    <t>JL COKROAMINOTO GG KATALIA I</t>
+  </si>
+  <si>
+    <t>0817565183</t>
+  </si>
+  <si>
+    <t>5171041707770005</t>
+  </si>
+  <si>
     <t>0031016</t>
   </si>
   <si>
+    <t>MISNAN</t>
+  </si>
+  <si>
+    <t>JL GATSU 6 H NO 24</t>
+  </si>
+  <si>
+    <t>081337562040</t>
+  </si>
+  <si>
+    <t>3511110101640027</t>
+  </si>
+  <si>
     <t>0031017</t>
   </si>
   <si>
+    <t>HASANUDDIN</t>
+  </si>
+  <si>
+    <t>JL PIDADA  V NO 21 DPS UBUNG</t>
+  </si>
+  <si>
+    <t>08123914288</t>
+  </si>
+  <si>
+    <t>5171042802680002</t>
+  </si>
+  <si>
     <t>0031018</t>
   </si>
   <si>
+    <t>A.A BAGUS DWI ARIYANTARA</t>
+  </si>
+  <si>
+    <t>JL IMAM BONJOL GG.VII NO.1</t>
+  </si>
+  <si>
+    <t>081936195672</t>
+  </si>
+  <si>
+    <t>5171030909720023</t>
+  </si>
+  <si>
     <t>0031019</t>
   </si>
   <si>
@@ -975,6 +1185,18 @@
     <t>0041010</t>
   </si>
   <si>
+    <t>NI PUTU DARMIATI</t>
+  </si>
+  <si>
+    <t>Br.Dinas Yeha Sebudi Selat</t>
+  </si>
+  <si>
+    <t>082341400818</t>
+  </si>
+  <si>
+    <t>5107074706930002</t>
+  </si>
+  <si>
     <t>0041011</t>
   </si>
   <si>
@@ -1380,24 +1602,105 @@
     <t>0051025</t>
   </si>
   <si>
+    <t>SUTARNO</t>
+  </si>
+  <si>
+    <t>JL.PENGUBENGAN KAUH</t>
+  </si>
+  <si>
+    <t>052238379281</t>
+  </si>
+  <si>
+    <t>3312150107670009</t>
+  </si>
+  <si>
     <t>0051026</t>
   </si>
   <si>
+    <t>TANAH LOT PERUM NGIDAH INDAH I</t>
+  </si>
+  <si>
+    <t>085804518396</t>
+  </si>
+  <si>
+    <t>3507010101710031</t>
+  </si>
+  <si>
     <t>0051027</t>
   </si>
   <si>
+    <t>I MADE SUKARTA</t>
+  </si>
+  <si>
+    <t>JL.TUKAD CITARUM W NO.2</t>
+  </si>
+  <si>
+    <t>081239176797</t>
+  </si>
+  <si>
+    <t>5107051010800005</t>
+  </si>
+  <si>
     <t>0051028</t>
   </si>
   <si>
+    <t>I MADE RIANTA</t>
+  </si>
+  <si>
+    <t>JL.MERTHANADI KEROBOKAN</t>
+  </si>
+  <si>
+    <t>081236383933</t>
+  </si>
+  <si>
+    <t>5103060703760004</t>
+  </si>
+  <si>
     <t>0051029</t>
   </si>
   <si>
+    <t>BPK.TUMARNO</t>
+  </si>
+  <si>
+    <t>BANJAR CANGGU PERMAI,TEMPEKAN 5</t>
+  </si>
+  <si>
+    <t>081239309439</t>
+  </si>
+  <si>
+    <t>5103060212660003</t>
+  </si>
+  <si>
     <t>0051030</t>
   </si>
   <si>
+    <t>BPK.I MADE DWI ANTARA</t>
+  </si>
+  <si>
+    <t>JL.PULAU AYU 4 NO.3</t>
+  </si>
+  <si>
+    <t>085101983844</t>
+  </si>
+  <si>
+    <t>5171032704850004</t>
+  </si>
+  <si>
     <t>0051031</t>
   </si>
   <si>
+    <t>MIFTAH ZUHRI</t>
+  </si>
+  <si>
+    <t>JL.PULAU BUNGIN I</t>
+  </si>
+  <si>
+    <t>081337876878</t>
+  </si>
+  <si>
+    <t>3510052507830001</t>
+  </si>
+  <si>
     <t>0051032</t>
   </si>
   <si>
@@ -1536,24 +1839,108 @@
     <t>0061006</t>
   </si>
   <si>
+    <t>MUHASYIM</t>
+  </si>
+  <si>
+    <t>Jl. Drupadi 1 No. 5 Seminyak</t>
+  </si>
+  <si>
+    <t>082141092233</t>
+  </si>
+  <si>
+    <t>3503071010770003</t>
+  </si>
+  <si>
     <t>0061007</t>
   </si>
   <si>
+    <t>HERI PURNOMO</t>
+  </si>
+  <si>
+    <t>Jl.mahardika bay pas mumbul no 6</t>
+  </si>
+  <si>
+    <t>081337451564</t>
+  </si>
+  <si>
+    <t>3510041504720003</t>
+  </si>
+  <si>
     <t>0061008</t>
   </si>
   <si>
+    <t>I MADE YUS MAHA</t>
+  </si>
+  <si>
+    <t>JL.sriwijaya gg kayu manis 1 lingk legian kelod</t>
+  </si>
+  <si>
+    <t>08123942191</t>
+  </si>
+  <si>
+    <t>5103010802690003</t>
+  </si>
+  <si>
     <t>0061009</t>
   </si>
   <si>
+    <t>SALVADOR FRANCISCO BARBER</t>
+  </si>
+  <si>
+    <t>JL. Nakula</t>
+  </si>
+  <si>
+    <t>082147013339</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>0061010</t>
   </si>
   <si>
+    <t>ABDUL GHOFUR</t>
+  </si>
+  <si>
+    <t>Jl. Seminyak</t>
+  </si>
+  <si>
+    <t>081237595072</t>
+  </si>
+  <si>
+    <t>3509090209820005</t>
+  </si>
+  <si>
     <t>0061011</t>
   </si>
   <si>
+    <t>AHMAD YASIN</t>
+  </si>
+  <si>
+    <t>Jl. Kertapura Gg Segina 2 Blok B</t>
+  </si>
+  <si>
+    <t>081944467994</t>
+  </si>
+  <si>
+    <t>3509102803810001</t>
+  </si>
+  <si>
     <t>0061012</t>
   </si>
   <si>
+    <t>BUDI WALUYO</t>
+  </si>
+  <si>
+    <t>Jl.Per.wahyu Bernasi Buduk No.24</t>
+  </si>
+  <si>
+    <t>081337065502</t>
+  </si>
+  <si>
+    <t>800316184254</t>
+  </si>
+  <si>
     <t>0061013</t>
   </si>
   <si>
@@ -1689,15 +2076,63 @@
     <t>0071007</t>
   </si>
   <si>
+    <t>ANTO PRAYOGO</t>
+  </si>
+  <si>
+    <t>JL. KENYERI GG. ARJUNA NO.7 DENPASAR</t>
+  </si>
+  <si>
+    <t>082146148100</t>
+  </si>
+  <si>
+    <t>5171040505670001</t>
+  </si>
+  <si>
     <t>0071008</t>
   </si>
   <si>
+    <t>SUGIONO</t>
+  </si>
+  <si>
+    <t>DSN. TOJOLOR RT1 RW5 TEMUGURU H BANYUWANGI</t>
+  </si>
+  <si>
+    <t>081236756915</t>
+  </si>
+  <si>
+    <t>3510200807780008</t>
+  </si>
+  <si>
     <t>0071009</t>
   </si>
   <si>
+    <t>IDA BAGUS NADIA TMANA, ST</t>
+  </si>
+  <si>
+    <t>JL. NANGKA GG.NURI II NO.16 DPS, BR/LINK.UMASARI</t>
+  </si>
+  <si>
+    <t>08813655970</t>
+  </si>
+  <si>
+    <t>5171041101750001</t>
+  </si>
+  <si>
     <t>0071010</t>
   </si>
   <si>
+    <t>NGURAH ARYA ARTHAWIGUNA</t>
+  </si>
+  <si>
+    <t>JLN.PENDIDIKAN 1/4 BR/LINK GRAHA KERTI SIDAKARYA</t>
+  </si>
+  <si>
+    <t>081999755100</t>
+  </si>
+  <si>
+    <t>5171011902880002</t>
+  </si>
+  <si>
     <t>0071011</t>
   </si>
   <si>
@@ -1869,15 +2304,63 @@
     <t>0081009</t>
   </si>
   <si>
+    <t>I WAYAN SUDIARTANA</t>
+  </si>
+  <si>
+    <t>Br. silungan, lodtunduh, ubud, gianyar</t>
+  </si>
+  <si>
+    <t>081916747891</t>
+  </si>
+  <si>
+    <t>5104052310850003</t>
+  </si>
+  <si>
     <t>0081010</t>
   </si>
   <si>
+    <t>I PUTU SARJANA</t>
+  </si>
+  <si>
+    <t>Link. kwanji sempidi, sempidi, mengwi</t>
+  </si>
+  <si>
+    <t>081236171290</t>
+  </si>
+  <si>
+    <t>5103021712720004</t>
+  </si>
+  <si>
     <t>0081011</t>
   </si>
   <si>
+    <t>SUPANDRI</t>
+  </si>
+  <si>
+    <t>Br.batanancak,mas ,ubud</t>
+  </si>
+  <si>
+    <t>082315518709</t>
+  </si>
+  <si>
+    <t>3511102107700001</t>
+  </si>
+  <si>
     <t>0081012</t>
   </si>
   <si>
+    <t>EDI SUMANTORO</t>
+  </si>
+  <si>
+    <t>Br .kemenuh .sukawati</t>
+  </si>
+  <si>
+    <t>085333754040</t>
+  </si>
+  <si>
+    <t>3509080107890580</t>
+  </si>
+  <si>
     <t>0081013</t>
   </si>
   <si>
@@ -2055,9 +2538,33 @@
     <t>0091010</t>
   </si>
   <si>
+    <t>NI MADE AMBARAWATI ST</t>
+  </si>
+  <si>
+    <t>br dinas seronggo gede</t>
+  </si>
+  <si>
+    <t>089633111988</t>
+  </si>
+  <si>
+    <t>5102046604760003</t>
+  </si>
+  <si>
     <t>0091011</t>
   </si>
   <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t>jln kalang temo</t>
+  </si>
+  <si>
+    <t>085231305846</t>
+  </si>
+  <si>
+    <t>3529104107660153</t>
+  </si>
+  <si>
     <t>0091012</t>
   </si>
   <si>
@@ -2226,15 +2733,60 @@
     <t>0101009</t>
   </si>
   <si>
+    <t>BPK.ANTO</t>
+  </si>
+  <si>
+    <t>JL.GN GEDE NO.2A</t>
+  </si>
+  <si>
+    <t>081999751565</t>
+  </si>
+  <si>
+    <t>5171012907630001</t>
+  </si>
+  <si>
     <t>0101010</t>
   </si>
   <si>
+    <t>BPK. SUKIYANTO</t>
+  </si>
+  <si>
+    <t>JL. TAMAN WEDA SARI NO .12</t>
+  </si>
+  <si>
+    <t>082147234133</t>
+  </si>
+  <si>
+    <t>5171031804560019</t>
+  </si>
+  <si>
     <t>0101011</t>
   </si>
   <si>
+    <t>BPK.AHMAD BUDIANA</t>
+  </si>
+  <si>
+    <t>JL.MAHENDRADATA PERUM GRAHADI</t>
+  </si>
+  <si>
+    <t>08164738912</t>
+  </si>
+  <si>
+    <t>5171010906680001</t>
+  </si>
+  <si>
     <t>0101012</t>
   </si>
   <si>
+    <t>IBU. DESAK VERA DEVI</t>
+  </si>
+  <si>
+    <t>JL. BUANA KUBU LEMPUYANG RESIDENCE NO.B8 DENBAR</t>
+  </si>
+  <si>
+    <t>081805364007</t>
+  </si>
+  <si>
     <t>0101013</t>
   </si>
   <si>
@@ -2445,6 +2997,18 @@
     <t>0111013</t>
   </si>
   <si>
+    <t>IDA BAGUS ANOM EKA PUTRA</t>
+  </si>
+  <si>
+    <t>GIANYAR, SUKAWATI</t>
+  </si>
+  <si>
+    <t>081236788116</t>
+  </si>
+  <si>
+    <t>5104011106750001</t>
+  </si>
+  <si>
     <t>0111014</t>
   </si>
   <si>
@@ -2691,9 +3255,33 @@
     <t>0131007</t>
   </si>
   <si>
+    <t>I NENGAH SAKA PURWANTORO</t>
+  </si>
+  <si>
+    <t>JL.TK CITARUM NO 1</t>
+  </si>
+  <si>
+    <t>085100811928</t>
+  </si>
+  <si>
+    <t>5171010803810006</t>
+  </si>
+  <si>
     <t>0131008</t>
   </si>
   <si>
+    <t>HAPIDI</t>
+  </si>
+  <si>
+    <t>LING.GOMBENG,BANYUWANGI</t>
+  </si>
+  <si>
+    <t>081239182288</t>
+  </si>
+  <si>
+    <t>3510211405830007</t>
+  </si>
+  <si>
     <t>0131009</t>
   </si>
   <si>
@@ -2709,6 +3297,18 @@
     <t>0131013</t>
   </si>
   <si>
+    <t>CRISTIAN PRATAMA TANAYA</t>
+  </si>
+  <si>
+    <t>JL.TUKAD BALIAN X/2</t>
+  </si>
+  <si>
+    <t>083114339803</t>
+  </si>
+  <si>
+    <t>950616180100</t>
+  </si>
+  <si>
     <t>0131014</t>
   </si>
   <si>
@@ -2826,6 +3426,18 @@
     <t>0141006</t>
   </si>
   <si>
+    <t>I GUSTI KETUT SURYAWIRAWAN</t>
+  </si>
+  <si>
+    <t>Jl. Surya Bhuana I No. 25 , Kerobokan Kaja</t>
+  </si>
+  <si>
+    <t>0816571418</t>
+  </si>
+  <si>
+    <t>5103060410600002</t>
+  </si>
+  <si>
     <t>0141007</t>
   </si>
   <si>
@@ -3201,24 +3813,108 @@
     <t>0161017</t>
   </si>
   <si>
+    <t>NOVAL</t>
+  </si>
+  <si>
+    <t>Btn Canggu Asri no.46 Pelambingan</t>
+  </si>
+  <si>
+    <t>085737674533</t>
+  </si>
+  <si>
+    <t>5103060207800009</t>
+  </si>
+  <si>
     <t>0161018</t>
   </si>
   <si>
+    <t>ANTONIUS RAMA WIJAYA</t>
+  </si>
+  <si>
+    <t>Jln Bay Pas Tanah Lot Pererenan</t>
+  </si>
+  <si>
+    <t>081237777822</t>
+  </si>
+  <si>
+    <t>5171032201710002</t>
+  </si>
+  <si>
     <t>0161019</t>
   </si>
   <si>
+    <t>I NYOMAN SUBAWA</t>
+  </si>
+  <si>
+    <t>Br Canggu Desa Canggu, Kuta Utara</t>
+  </si>
+  <si>
+    <t>0871399280</t>
+  </si>
+  <si>
+    <t>5103061808670005</t>
+  </si>
+  <si>
     <t>0161020</t>
   </si>
   <si>
+    <t>JUNIANTO</t>
+  </si>
+  <si>
+    <t>Br Tiying Tutul ,Pererenan</t>
+  </si>
+  <si>
+    <t>082331349393</t>
+  </si>
+  <si>
+    <t>3502012803850002</t>
+  </si>
+  <si>
     <t>0161021</t>
   </si>
   <si>
+    <t>TOYIB</t>
+  </si>
+  <si>
+    <t>Jln. tukad citarum no 7C Denpasar</t>
+  </si>
+  <si>
+    <t>082247389110</t>
+  </si>
+  <si>
+    <t>3518130608900001</t>
+  </si>
+  <si>
     <t>0161022</t>
   </si>
   <si>
+    <t>MUHAMMAD FAUZY</t>
+  </si>
+  <si>
+    <t>DALUNG PERMAI</t>
+  </si>
+  <si>
+    <t>082340422302</t>
+  </si>
+  <si>
+    <t>3509120101840025</t>
+  </si>
+  <si>
     <t>0161023</t>
   </si>
   <si>
+    <t>FELIX ADDY</t>
+  </si>
+  <si>
+    <t>Jln Pulau Sailus II Denpasar</t>
+  </si>
+  <si>
+    <t>085857118444</t>
+  </si>
+  <si>
+    <t>820316183330</t>
+  </si>
+  <si>
     <t>0161024</t>
   </si>
   <si>
@@ -3351,10 +4047,46 @@
     <t>0171009</t>
   </si>
   <si>
+    <t>BUDIYANTO</t>
+  </si>
+  <si>
+    <t>Jl. Malboro gg 2, Denpasar</t>
+  </si>
+  <si>
+    <t>081337668807</t>
+  </si>
+  <si>
+    <t>3510090210840001</t>
+  </si>
+  <si>
     <t>0171010</t>
   </si>
   <si>
+    <t>DESTU LAIS KODAT</t>
+  </si>
+  <si>
+    <t>Jl. Pakusari gg XIII/8 Sesetan, Denpasar</t>
+  </si>
+  <si>
+    <t>081353355325</t>
+  </si>
+  <si>
+    <t>831216181750</t>
+  </si>
+  <si>
     <t>0171011</t>
+  </si>
+  <si>
+    <t>I NYOMAN MARDIKA</t>
+  </si>
+  <si>
+    <t>Jl. Pasekan gg Batukaru III Blok A no 12</t>
+  </si>
+  <si>
+    <t>081236209566</t>
+  </si>
+  <si>
+    <t>5108051606760005</t>
   </si>
   <si>
     <t>0171012</t>
@@ -3721,7 +4453,7 @@
   <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,7 +4568,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,126 +4784,126 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4179,25 +4911,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4205,25 +4937,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4231,7 +4963,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -4257,7 +4989,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
@@ -4283,7 +5015,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -4309,7 +5041,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -4335,7 +5067,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -4361,7 +5093,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -4387,7 +5119,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -4413,7 +5145,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
@@ -4439,7 +5171,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
@@ -4465,7 +5197,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
@@ -4491,7 +5223,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -4517,7 +5249,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -4543,7 +5275,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -4569,7 +5301,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
@@ -4595,7 +5327,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -4621,7 +5353,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -4647,7 +5379,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -4673,7 +5405,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -4699,7 +5431,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
@@ -4725,7 +5457,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
@@ -4751,7 +5483,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -4777,7 +5509,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
@@ -4803,7 +5535,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
@@ -4829,7 +5561,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -4855,7 +5587,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>63</v>
@@ -4881,7 +5613,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -4907,7 +5639,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
@@ -4933,7 +5665,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
@@ -4959,7 +5691,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
@@ -4985,7 +5717,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -5011,7 +5743,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
@@ -5037,7 +5769,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
@@ -5063,74 +5795,74 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -5141,22 +5873,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -5167,22 +5899,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -5193,22 +5925,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -5219,22 +5951,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" t="s">
         <v>138</v>
-      </c>
-      <c r="E58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" t="s">
-        <v>109</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -5245,22 +5977,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -5271,48 +6003,48 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -5323,22 +6055,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -5349,22 +6081,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G63" t="s">
         <v>61</v>
@@ -5375,25 +6107,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5401,59 +6133,59 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -5479,7 +6211,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
@@ -5505,7 +6237,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
@@ -5531,7 +6263,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
@@ -5557,7 +6289,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
@@ -5583,7 +6315,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
@@ -5609,7 +6341,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
         <v>63</v>
@@ -5635,7 +6367,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
         <v>63</v>
@@ -5661,7 +6393,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
@@ -5687,7 +6419,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
@@ -5713,22 +6445,22 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -5739,48 +6471,48 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
         <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
         <v>63</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="F79" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -5791,22 +6523,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="F80" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G80" t="s">
         <v>35</v>
@@ -5817,22 +6549,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F81" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -5843,22 +6575,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F82" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
@@ -5869,22 +6601,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="F83" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -5895,48 +6627,48 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F84" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G84" t="s">
         <v>61</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E85" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G85" t="s">
         <v>61</v>
@@ -5947,48 +6679,48 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" t="s">
         <v>225</v>
-      </c>
-      <c r="E86" t="s">
-        <v>226</v>
-      </c>
-      <c r="F86" t="s">
-        <v>183</v>
       </c>
       <c r="G86" t="s">
         <v>61</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="E87" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G87" t="s">
         <v>61</v>
@@ -5999,25 +6731,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6025,77 +6757,77 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G89" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G90" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G91" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6103,77 +6835,77 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="C92" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G92" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G93" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="C94" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="F94" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -6181,7 +6913,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
         <v>63</v>
@@ -6207,7 +6939,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s">
         <v>63</v>
@@ -6233,7 +6965,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
         <v>63</v>
@@ -6259,7 +6991,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="B98" t="s">
         <v>63</v>
@@ -6285,7 +7017,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
         <v>63</v>
@@ -6311,7 +7043,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
         <v>63</v>
@@ -6337,7 +7069,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
         <v>63</v>
@@ -6363,7 +7095,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
         <v>63</v>
@@ -6389,7 +7121,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
         <v>63</v>
@@ -6415,7 +7147,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="B104" t="s">
         <v>63</v>
@@ -6441,7 +7173,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B105" t="s">
         <v>63</v>
@@ -6467,7 +7199,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -6493,7 +7225,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
         <v>63</v>
@@ -6519,7 +7251,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
@@ -6545,7 +7277,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
         <v>63</v>
@@ -6571,7 +7303,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -6597,7 +7329,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
         <v>63</v>
@@ -6623,7 +7355,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
         <v>63</v>
@@ -6649,7 +7381,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="B113" t="s">
         <v>63</v>
@@ -6675,7 +7407,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="B114" t="s">
         <v>63</v>
@@ -6701,7 +7433,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
         <v>63</v>
@@ -6727,7 +7459,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
         <v>63</v>
@@ -6753,7 +7485,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
         <v>63</v>
@@ -6779,7 +7511,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
         <v>63</v>
@@ -6805,7 +7537,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
         <v>63</v>
@@ -6831,7 +7563,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="B120" t="s">
         <v>63</v>
@@ -6857,7 +7589,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
         <v>63</v>
@@ -6883,7 +7615,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="B122" t="s">
         <v>63</v>
@@ -6909,7 +7641,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
         <v>63</v>
@@ -6935,7 +7667,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s">
         <v>63</v>
@@ -6961,7 +7693,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s">
         <v>63</v>
@@ -6987,7 +7719,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="B126" t="s">
         <v>63</v>
@@ -7013,22 +7745,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="C127" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="D127" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="E127" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="F127" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -7039,22 +7771,22 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="F128" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
@@ -7065,22 +7797,22 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="E129" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -7091,22 +7823,22 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="E130" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
       <c r="F130" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -7117,100 +7849,100 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
       <c r="C131" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="D131" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="E131" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="F131" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="F132" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
       </c>
       <c r="H132">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="C133" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="D133" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="E133" t="s">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="F133" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="D134" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="E134" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G134" t="s">
         <v>61</v>
@@ -7221,22 +7953,22 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="D135" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="F135" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="G135" t="s">
         <v>61</v>
@@ -7247,25 +7979,25 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="C136" t="s">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>391</v>
       </c>
       <c r="F136" t="s">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="G136" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7273,7 +8005,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="B137" t="s">
         <v>63</v>
@@ -7299,7 +8031,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s">
         <v>63</v>
@@ -7325,7 +8057,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="B139" t="s">
         <v>63</v>
@@ -7351,7 +8083,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -7377,7 +8109,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -7403,7 +8135,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -7429,7 +8161,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -7455,7 +8187,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -7481,7 +8213,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -7507,7 +8239,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -7533,7 +8265,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="B147" t="s">
         <v>63</v>
@@ -7559,7 +8291,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s">
         <v>63</v>
@@ -7585,7 +8317,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="B149" t="s">
         <v>63</v>
@@ -7611,7 +8343,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="B150" t="s">
         <v>63</v>
@@ -7637,7 +8369,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="B151" t="s">
         <v>63</v>
@@ -7663,22 +8395,22 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="C152" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="D152" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="E152" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="F152" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
@@ -7689,48 +8421,48 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="B153" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="C153" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="D153" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="E153" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="F153" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="B154" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="C154" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="E154" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F154" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G154" t="s">
         <v>14</v>
@@ -7741,48 +8473,48 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="C155" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E155" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="F155" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="D156" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="E156" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="F156" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -7793,152 +8525,152 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="E157" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="F157" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="D158" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="E158" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="F158" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="C159" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="D159" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="E159" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="F159" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G159" t="s">
         <v>35</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="B160" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="C160" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="D160" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="E160" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="F160" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G160" t="s">
         <v>35</v>
       </c>
       <c r="H160">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="C161" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="D161" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="E161" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="F161" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="B162" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="C162" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="E162" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="F162" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G162" t="s">
         <v>35</v>
@@ -7949,48 +8681,48 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="B163" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="C163" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="E163" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="F163" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G163" t="s">
         <v>35</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="B164" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="D164" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="E164" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="F164" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G164" t="s">
         <v>35</v>
@@ -8001,48 +8733,48 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="B165" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="C165" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="D165" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="E165" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="F165" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G165" t="s">
         <v>61</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="B166" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="C166" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="D166" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="E166" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="F166" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G166" t="s">
         <v>61</v>
@@ -8053,22 +8785,22 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="B167" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="C167" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="D167" t="s">
+        <v>486</v>
+      </c>
+      <c r="E167" t="s">
+        <v>487</v>
+      </c>
+      <c r="F167" t="s">
         <v>412</v>
-      </c>
-      <c r="E167" t="s">
-        <v>413</v>
-      </c>
-      <c r="F167" t="s">
-        <v>338</v>
       </c>
       <c r="G167" t="s">
         <v>61</v>
@@ -8079,22 +8811,22 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="B168" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="C168" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="D168" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="E168" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="F168" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G168" t="s">
         <v>61</v>
@@ -8105,22 +8837,22 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="B169" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="C169" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="D169" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="E169" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G169" t="s">
         <v>61</v>
@@ -8131,22 +8863,22 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="C170" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D170" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="E170" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G170" t="s">
         <v>61</v>
@@ -8157,22 +8889,22 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="B171" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="D171" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G171" t="s">
         <v>61</v>
@@ -8183,22 +8915,22 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="B172" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C172" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="D172" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="E172" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G172" t="s">
         <v>61</v>
@@ -8209,22 +8941,22 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="B173" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="C173" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="D173" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="E173" t="s">
         <v>63</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G173" t="s">
         <v>61</v>
@@ -8235,22 +8967,22 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="B174" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C174" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="D174" t="s">
         <v>63</v>
       </c>
       <c r="E174" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G174" t="s">
         <v>61</v>
@@ -8261,22 +8993,22 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="B175" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="C175" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="D175" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E175" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="G175" t="s">
         <v>61</v>
@@ -8287,189 +9019,189 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="B176" t="s">
-        <v>63</v>
+        <v>527</v>
       </c>
       <c r="C176" t="s">
-        <v>63</v>
+        <v>528</v>
       </c>
       <c r="D176" t="s">
-        <v>63</v>
+        <v>529</v>
       </c>
       <c r="E176" t="s">
-        <v>63</v>
+        <v>530</v>
       </c>
       <c r="F176" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G176" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="B177" t="s">
-        <v>63</v>
+        <v>527</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>532</v>
       </c>
       <c r="D177" t="s">
-        <v>63</v>
+        <v>533</v>
       </c>
       <c r="E177" t="s">
-        <v>63</v>
+        <v>534</v>
       </c>
       <c r="F177" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G177" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>536</v>
       </c>
       <c r="C178" t="s">
-        <v>63</v>
+        <v>537</v>
       </c>
       <c r="D178" t="s">
-        <v>63</v>
+        <v>538</v>
       </c>
       <c r="E178" t="s">
-        <v>63</v>
+        <v>539</v>
       </c>
       <c r="F178" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G178" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="C179" t="s">
-        <v>63</v>
+        <v>542</v>
       </c>
       <c r="D179" t="s">
-        <v>63</v>
+        <v>543</v>
       </c>
       <c r="E179" t="s">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="F179" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G179" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>546</v>
       </c>
       <c r="C180" t="s">
-        <v>63</v>
+        <v>547</v>
       </c>
       <c r="D180" t="s">
-        <v>63</v>
+        <v>548</v>
       </c>
       <c r="E180" t="s">
-        <v>63</v>
+        <v>549</v>
       </c>
       <c r="F180" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G180" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="B181" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="C181" t="s">
-        <v>63</v>
+        <v>552</v>
       </c>
       <c r="D181" t="s">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="E181" t="s">
-        <v>63</v>
+        <v>554</v>
       </c>
       <c r="F181" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G181" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>458</v>
+        <v>555</v>
       </c>
       <c r="B182" t="s">
-        <v>63</v>
+        <v>556</v>
       </c>
       <c r="C182" t="s">
-        <v>63</v>
+        <v>557</v>
       </c>
       <c r="D182" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="E182" t="s">
-        <v>63</v>
+        <v>559</v>
       </c>
       <c r="F182" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="G182" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
       <c r="B183" t="s">
         <v>63</v>
@@ -8495,7 +9227,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>460</v>
+        <v>561</v>
       </c>
       <c r="B184" t="s">
         <v>63</v>
@@ -8521,7 +9253,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>461</v>
+        <v>562</v>
       </c>
       <c r="B185" t="s">
         <v>63</v>
@@ -8547,7 +9279,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>462</v>
+        <v>563</v>
       </c>
       <c r="B186" t="s">
         <v>63</v>
@@ -8573,7 +9305,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="B187" t="s">
         <v>63</v>
@@ -8599,7 +9331,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s">
         <v>63</v>
@@ -8625,7 +9357,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="B189" t="s">
         <v>63</v>
@@ -8651,7 +9383,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>466</v>
+        <v>567</v>
       </c>
       <c r="B190" t="s">
         <v>63</v>
@@ -8677,7 +9409,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>467</v>
+        <v>568</v>
       </c>
       <c r="B191" t="s">
         <v>63</v>
@@ -8703,7 +9435,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
       <c r="B192" t="s">
         <v>63</v>
@@ -8729,7 +9461,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="B193" t="s">
         <v>63</v>
@@ -8755,7 +9487,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="B194" t="s">
         <v>63</v>
@@ -8781,7 +9513,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
       <c r="B195" t="s">
         <v>63</v>
@@ -8807,7 +9539,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>472</v>
+        <v>573</v>
       </c>
       <c r="B196" t="s">
         <v>63</v>
@@ -8833,7 +9565,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>473</v>
+        <v>574</v>
       </c>
       <c r="B197" t="s">
         <v>63</v>
@@ -8859,7 +9591,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="B198" t="s">
         <v>63</v>
@@ -8885,7 +9617,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
       <c r="B199" t="s">
         <v>63</v>
@@ -8911,7 +9643,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="B200" t="s">
         <v>63</v>
@@ -8937,7 +9669,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>477</v>
+        <v>578</v>
       </c>
       <c r="B201" t="s">
         <v>63</v>
@@ -8963,22 +9695,22 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="B202" t="s">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="C202" t="s">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="D202" t="s">
-        <v>481</v>
+        <v>582</v>
       </c>
       <c r="E202" t="s">
-        <v>482</v>
+        <v>583</v>
       </c>
       <c r="F202" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
@@ -8989,22 +9721,22 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="B203" t="s">
-        <v>485</v>
+        <v>586</v>
       </c>
       <c r="C203" t="s">
-        <v>486</v>
+        <v>587</v>
       </c>
       <c r="D203" t="s">
-        <v>487</v>
+        <v>588</v>
       </c>
       <c r="E203" t="s">
-        <v>488</v>
+        <v>589</v>
       </c>
       <c r="F203" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="G203" t="s">
         <v>61</v>
@@ -9015,22 +9747,22 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>489</v>
+        <v>590</v>
       </c>
       <c r="B204" t="s">
-        <v>490</v>
+        <v>591</v>
       </c>
       <c r="C204" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D204" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
       <c r="E204" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
       <c r="F204" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="G204" t="s">
         <v>61</v>
@@ -9041,48 +9773,48 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="B205" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
       <c r="C205" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="D205" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="E205" t="s">
-        <v>498</v>
+        <v>599</v>
       </c>
       <c r="F205" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="G205" t="s">
         <v>61</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="B206" t="s">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="C206" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="D206" t="s">
-        <v>502</v>
+        <v>603</v>
       </c>
       <c r="E206" t="s">
-        <v>503</v>
+        <v>604</v>
       </c>
       <c r="F206" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="G206" t="s">
         <v>61</v>
@@ -9093,189 +9825,189 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>504</v>
+        <v>605</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>606</v>
       </c>
       <c r="C207" t="s">
-        <v>63</v>
+        <v>607</v>
       </c>
       <c r="D207" t="s">
-        <v>63</v>
+        <v>608</v>
       </c>
       <c r="E207" t="s">
-        <v>63</v>
+        <v>609</v>
       </c>
       <c r="F207" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G207" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>505</v>
+        <v>610</v>
       </c>
       <c r="B208" t="s">
-        <v>63</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>63</v>
+        <v>612</v>
       </c>
       <c r="D208" t="s">
-        <v>63</v>
+        <v>613</v>
       </c>
       <c r="E208" t="s">
-        <v>63</v>
+        <v>614</v>
       </c>
       <c r="F208" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G208" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>506</v>
+        <v>615</v>
       </c>
       <c r="B209" t="s">
-        <v>63</v>
+        <v>616</v>
       </c>
       <c r="C209" t="s">
-        <v>63</v>
+        <v>617</v>
       </c>
       <c r="D209" t="s">
-        <v>63</v>
+        <v>618</v>
       </c>
       <c r="E209" t="s">
-        <v>63</v>
+        <v>619</v>
       </c>
       <c r="F209" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G209" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>507</v>
+        <v>620</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>621</v>
       </c>
       <c r="C210" t="s">
-        <v>63</v>
+        <v>622</v>
       </c>
       <c r="D210" t="s">
-        <v>63</v>
+        <v>623</v>
       </c>
       <c r="E210" t="s">
-        <v>63</v>
+        <v>624</v>
       </c>
       <c r="F210" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G210" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>508</v>
+        <v>625</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>626</v>
       </c>
       <c r="C211" t="s">
-        <v>63</v>
+        <v>627</v>
       </c>
       <c r="D211" t="s">
-        <v>63</v>
+        <v>628</v>
       </c>
       <c r="E211" t="s">
-        <v>63</v>
+        <v>629</v>
       </c>
       <c r="F211" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G211" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>630</v>
       </c>
       <c r="B212" t="s">
-        <v>63</v>
+        <v>631</v>
       </c>
       <c r="C212" t="s">
-        <v>63</v>
+        <v>632</v>
       </c>
       <c r="D212" t="s">
-        <v>63</v>
+        <v>633</v>
       </c>
       <c r="E212" t="s">
-        <v>63</v>
+        <v>634</v>
       </c>
       <c r="F212" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G212" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>510</v>
+        <v>635</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>636</v>
       </c>
       <c r="C213" t="s">
-        <v>63</v>
+        <v>637</v>
       </c>
       <c r="D213" t="s">
-        <v>63</v>
+        <v>638</v>
       </c>
       <c r="E213" t="s">
-        <v>63</v>
+        <v>639</v>
       </c>
       <c r="F213" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G213" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>511</v>
+        <v>640</v>
       </c>
       <c r="B214" t="s">
         <v>63</v>
@@ -9301,7 +10033,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>512</v>
+        <v>641</v>
       </c>
       <c r="B215" t="s">
         <v>63</v>
@@ -9327,7 +10059,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>513</v>
+        <v>642</v>
       </c>
       <c r="B216" t="s">
         <v>63</v>
@@ -9353,7 +10085,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="B217" t="s">
         <v>63</v>
@@ -9379,7 +10111,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>515</v>
+        <v>644</v>
       </c>
       <c r="B218" t="s">
         <v>63</v>
@@ -9405,7 +10137,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>516</v>
+        <v>645</v>
       </c>
       <c r="B219" t="s">
         <v>63</v>
@@ -9431,7 +10163,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>517</v>
+        <v>646</v>
       </c>
       <c r="B220" t="s">
         <v>63</v>
@@ -9457,7 +10189,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>518</v>
+        <v>647</v>
       </c>
       <c r="B221" t="s">
         <v>63</v>
@@ -9483,7 +10215,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>519</v>
+        <v>648</v>
       </c>
       <c r="B222" t="s">
         <v>63</v>
@@ -9509,7 +10241,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>520</v>
+        <v>649</v>
       </c>
       <c r="B223" t="s">
         <v>63</v>
@@ -9535,7 +10267,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>521</v>
+        <v>650</v>
       </c>
       <c r="B224" t="s">
         <v>63</v>
@@ -9561,7 +10293,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>522</v>
+        <v>651</v>
       </c>
       <c r="B225" t="s">
         <v>63</v>
@@ -9587,7 +10319,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>523</v>
+        <v>652</v>
       </c>
       <c r="B226" t="s">
         <v>63</v>
@@ -9613,22 +10345,22 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>524</v>
+        <v>653</v>
       </c>
       <c r="B227" t="s">
-        <v>525</v>
+        <v>654</v>
       </c>
       <c r="C227" t="s">
-        <v>526</v>
+        <v>655</v>
       </c>
       <c r="D227" t="s">
-        <v>527</v>
+        <v>656</v>
       </c>
       <c r="E227" t="s">
-        <v>528</v>
+        <v>657</v>
       </c>
       <c r="F227" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G227" t="s">
         <v>14</v>
@@ -9639,22 +10371,22 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>530</v>
+        <v>659</v>
       </c>
       <c r="B228" t="s">
-        <v>531</v>
+        <v>660</v>
       </c>
       <c r="C228" t="s">
-        <v>532</v>
+        <v>661</v>
       </c>
       <c r="D228" t="s">
-        <v>533</v>
+        <v>662</v>
       </c>
       <c r="E228" t="s">
-        <v>534</v>
+        <v>663</v>
       </c>
       <c r="F228" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G228" t="s">
         <v>14</v>
@@ -9665,22 +10397,22 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>535</v>
+        <v>664</v>
       </c>
       <c r="B229" t="s">
-        <v>536</v>
+        <v>665</v>
       </c>
       <c r="C229" t="s">
-        <v>537</v>
+        <v>666</v>
       </c>
       <c r="D229" t="s">
-        <v>538</v>
+        <v>667</v>
       </c>
       <c r="E229" t="s">
-        <v>539</v>
+        <v>668</v>
       </c>
       <c r="F229" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G229" t="s">
         <v>14</v>
@@ -9691,22 +10423,22 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>540</v>
+        <v>669</v>
       </c>
       <c r="B230" t="s">
-        <v>541</v>
+        <v>670</v>
       </c>
       <c r="C230" t="s">
-        <v>542</v>
+        <v>671</v>
       </c>
       <c r="D230" t="s">
-        <v>543</v>
+        <v>672</v>
       </c>
       <c r="E230" t="s">
-        <v>544</v>
+        <v>673</v>
       </c>
       <c r="F230" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G230" t="s">
         <v>35</v>
@@ -9717,155 +10449,155 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>545</v>
+        <v>674</v>
       </c>
       <c r="B231" t="s">
-        <v>546</v>
+        <v>675</v>
       </c>
       <c r="C231" t="s">
-        <v>547</v>
+        <v>676</v>
       </c>
       <c r="D231" t="s">
-        <v>548</v>
+        <v>677</v>
       </c>
       <c r="E231" t="s">
-        <v>549</v>
+        <v>678</v>
       </c>
       <c r="F231" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G231" t="s">
         <v>35</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>550</v>
+        <v>679</v>
       </c>
       <c r="B232" t="s">
-        <v>551</v>
+        <v>680</v>
       </c>
       <c r="C232" t="s">
-        <v>552</v>
+        <v>681</v>
       </c>
       <c r="D232" t="s">
-        <v>553</v>
+        <v>682</v>
       </c>
       <c r="E232" t="s">
-        <v>554</v>
+        <v>683</v>
       </c>
       <c r="F232" t="s">
-        <v>529</v>
+        <v>658</v>
       </c>
       <c r="G232" t="s">
         <v>61</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>555</v>
+        <v>684</v>
       </c>
       <c r="B233" t="s">
-        <v>63</v>
+        <v>685</v>
       </c>
       <c r="C233" t="s">
-        <v>63</v>
+        <v>686</v>
       </c>
       <c r="D233" t="s">
-        <v>63</v>
+        <v>687</v>
       </c>
       <c r="E233" t="s">
-        <v>63</v>
+        <v>688</v>
       </c>
       <c r="F233" t="s">
-        <v>63</v>
+        <v>658</v>
       </c>
       <c r="G233" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="B234" t="s">
-        <v>63</v>
+        <v>690</v>
       </c>
       <c r="C234" t="s">
-        <v>63</v>
+        <v>691</v>
       </c>
       <c r="D234" t="s">
-        <v>63</v>
+        <v>692</v>
       </c>
       <c r="E234" t="s">
-        <v>63</v>
+        <v>693</v>
       </c>
       <c r="F234" t="s">
-        <v>63</v>
+        <v>658</v>
       </c>
       <c r="G234" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>557</v>
+        <v>694</v>
       </c>
       <c r="B235" t="s">
-        <v>63</v>
+        <v>695</v>
       </c>
       <c r="C235" t="s">
-        <v>63</v>
+        <v>696</v>
       </c>
       <c r="D235" t="s">
-        <v>63</v>
+        <v>697</v>
       </c>
       <c r="E235" t="s">
-        <v>63</v>
+        <v>698</v>
       </c>
       <c r="F235" t="s">
-        <v>63</v>
+        <v>658</v>
       </c>
       <c r="G235" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>558</v>
+        <v>699</v>
       </c>
       <c r="B236" t="s">
-        <v>63</v>
+        <v>700</v>
       </c>
       <c r="C236" t="s">
-        <v>63</v>
+        <v>701</v>
       </c>
       <c r="D236" t="s">
-        <v>63</v>
+        <v>702</v>
       </c>
       <c r="E236" t="s">
-        <v>63</v>
+        <v>703</v>
       </c>
       <c r="F236" t="s">
-        <v>63</v>
+        <v>658</v>
       </c>
       <c r="G236" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -9873,7 +10605,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>559</v>
+        <v>704</v>
       </c>
       <c r="B237" t="s">
         <v>63</v>
@@ -9899,7 +10631,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>560</v>
+        <v>705</v>
       </c>
       <c r="B238" t="s">
         <v>63</v>
@@ -9925,7 +10657,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>561</v>
+        <v>706</v>
       </c>
       <c r="B239" t="s">
         <v>63</v>
@@ -9951,7 +10683,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>562</v>
+        <v>707</v>
       </c>
       <c r="B240" t="s">
         <v>63</v>
@@ -9977,7 +10709,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>563</v>
+        <v>708</v>
       </c>
       <c r="B241" t="s">
         <v>63</v>
@@ -10003,7 +10735,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>564</v>
+        <v>709</v>
       </c>
       <c r="B242" t="s">
         <v>63</v>
@@ -10029,7 +10761,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="B243" t="s">
         <v>63</v>
@@ -10055,7 +10787,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="B244" t="s">
         <v>63</v>
@@ -10081,7 +10813,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="B245" t="s">
         <v>63</v>
@@ -10107,7 +10839,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>568</v>
+        <v>713</v>
       </c>
       <c r="B246" t="s">
         <v>63</v>
@@ -10133,7 +10865,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>569</v>
+        <v>714</v>
       </c>
       <c r="B247" t="s">
         <v>63</v>
@@ -10159,7 +10891,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>570</v>
+        <v>715</v>
       </c>
       <c r="B248" t="s">
         <v>63</v>
@@ -10185,7 +10917,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>571</v>
+        <v>716</v>
       </c>
       <c r="B249" t="s">
         <v>63</v>
@@ -10211,7 +10943,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>572</v>
+        <v>717</v>
       </c>
       <c r="B250" t="s">
         <v>63</v>
@@ -10237,7 +10969,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>573</v>
+        <v>718</v>
       </c>
       <c r="B251" t="s">
         <v>63</v>
@@ -10263,48 +10995,48 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>574</v>
+        <v>719</v>
       </c>
       <c r="B252" t="s">
-        <v>575</v>
+        <v>720</v>
       </c>
       <c r="C252" t="s">
-        <v>576</v>
+        <v>721</v>
       </c>
       <c r="D252" t="s">
-        <v>577</v>
+        <v>722</v>
       </c>
       <c r="E252" t="s">
-        <v>578</v>
+        <v>723</v>
       </c>
       <c r="F252" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
       </c>
       <c r="H252">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>580</v>
+        <v>725</v>
       </c>
       <c r="B253" t="s">
-        <v>581</v>
+        <v>726</v>
       </c>
       <c r="C253" t="s">
-        <v>582</v>
+        <v>727</v>
       </c>
       <c r="D253" t="s">
-        <v>583</v>
+        <v>728</v>
       </c>
       <c r="E253" t="s">
-        <v>584</v>
+        <v>729</v>
       </c>
       <c r="F253" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G253" t="s">
         <v>14</v>
@@ -10315,74 +11047,74 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>585</v>
+        <v>730</v>
       </c>
       <c r="B254" t="s">
-        <v>586</v>
+        <v>731</v>
       </c>
       <c r="C254" t="s">
-        <v>587</v>
+        <v>732</v>
       </c>
       <c r="D254" t="s">
-        <v>588</v>
+        <v>733</v>
       </c>
       <c r="E254" t="s">
-        <v>589</v>
+        <v>734</v>
       </c>
       <c r="F254" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G254" t="s">
         <v>35</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>590</v>
+        <v>735</v>
       </c>
       <c r="B255" t="s">
-        <v>591</v>
+        <v>736</v>
       </c>
       <c r="C255" t="s">
-        <v>592</v>
+        <v>737</v>
       </c>
       <c r="D255" t="s">
-        <v>593</v>
+        <v>738</v>
       </c>
       <c r="E255" t="s">
-        <v>594</v>
+        <v>739</v>
       </c>
       <c r="F255" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G255" t="s">
         <v>35</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>595</v>
+        <v>740</v>
       </c>
       <c r="B256" t="s">
-        <v>596</v>
+        <v>741</v>
       </c>
       <c r="C256" t="s">
-        <v>597</v>
+        <v>742</v>
       </c>
       <c r="D256" t="s">
-        <v>598</v>
+        <v>743</v>
       </c>
       <c r="E256" t="s">
-        <v>599</v>
+        <v>744</v>
       </c>
       <c r="F256" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G256" t="s">
         <v>35</v>
@@ -10393,22 +11125,22 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="B257" t="s">
-        <v>601</v>
+        <v>746</v>
       </c>
       <c r="C257" t="s">
-        <v>602</v>
+        <v>747</v>
       </c>
       <c r="D257" t="s">
-        <v>603</v>
+        <v>748</v>
       </c>
       <c r="E257" t="s">
-        <v>604</v>
+        <v>749</v>
       </c>
       <c r="F257" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G257" t="s">
         <v>35</v>
@@ -10419,22 +11151,22 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>605</v>
+        <v>750</v>
       </c>
       <c r="B258" t="s">
-        <v>606</v>
+        <v>751</v>
       </c>
       <c r="C258" t="s">
-        <v>607</v>
+        <v>752</v>
       </c>
       <c r="D258" t="s">
-        <v>608</v>
+        <v>753</v>
       </c>
       <c r="E258" t="s">
-        <v>609</v>
+        <v>754</v>
       </c>
       <c r="F258" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G258" t="s">
         <v>61</v>
@@ -10445,51 +11177,51 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>610</v>
+        <v>755</v>
       </c>
       <c r="B259" t="s">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="C259" t="s">
-        <v>612</v>
+        <v>757</v>
       </c>
       <c r="D259" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="E259" t="s">
-        <v>614</v>
+        <v>759</v>
       </c>
       <c r="F259" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="G259" t="s">
         <v>61</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>615</v>
+        <v>760</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>761</v>
       </c>
       <c r="C260" t="s">
-        <v>63</v>
+        <v>762</v>
       </c>
       <c r="D260" t="s">
-        <v>63</v>
+        <v>763</v>
       </c>
       <c r="E260" t="s">
-        <v>63</v>
+        <v>764</v>
       </c>
       <c r="F260" t="s">
-        <v>63</v>
+        <v>724</v>
       </c>
       <c r="G260" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -10497,51 +11229,51 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>616</v>
+        <v>765</v>
       </c>
       <c r="B261" t="s">
-        <v>63</v>
+        <v>766</v>
       </c>
       <c r="C261" t="s">
-        <v>63</v>
+        <v>767</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>768</v>
       </c>
       <c r="E261" t="s">
-        <v>63</v>
+        <v>769</v>
       </c>
       <c r="F261" t="s">
-        <v>63</v>
+        <v>724</v>
       </c>
       <c r="G261" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>617</v>
+        <v>770</v>
       </c>
       <c r="B262" t="s">
-        <v>63</v>
+        <v>771</v>
       </c>
       <c r="C262" t="s">
-        <v>63</v>
+        <v>772</v>
       </c>
       <c r="D262" t="s">
-        <v>63</v>
+        <v>773</v>
       </c>
       <c r="E262" t="s">
-        <v>63</v>
+        <v>774</v>
       </c>
       <c r="F262" t="s">
-        <v>63</v>
+        <v>724</v>
       </c>
       <c r="G262" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -10549,25 +11281,25 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>618</v>
+        <v>775</v>
       </c>
       <c r="B263" t="s">
-        <v>63</v>
+        <v>776</v>
       </c>
       <c r="C263" t="s">
-        <v>63</v>
+        <v>777</v>
       </c>
       <c r="D263" t="s">
-        <v>63</v>
+        <v>778</v>
       </c>
       <c r="E263" t="s">
-        <v>63</v>
+        <v>779</v>
       </c>
       <c r="F263" t="s">
-        <v>63</v>
+        <v>724</v>
       </c>
       <c r="G263" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -10575,7 +11307,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>619</v>
+        <v>780</v>
       </c>
       <c r="B264" t="s">
         <v>63</v>
@@ -10601,7 +11333,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>620</v>
+        <v>781</v>
       </c>
       <c r="B265" t="s">
         <v>63</v>
@@ -10627,7 +11359,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>621</v>
+        <v>782</v>
       </c>
       <c r="B266" t="s">
         <v>63</v>
@@ -10653,7 +11385,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>622</v>
+        <v>783</v>
       </c>
       <c r="B267" t="s">
         <v>63</v>
@@ -10679,7 +11411,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>623</v>
+        <v>784</v>
       </c>
       <c r="B268" t="s">
         <v>63</v>
@@ -10705,7 +11437,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>624</v>
+        <v>785</v>
       </c>
       <c r="B269" t="s">
         <v>63</v>
@@ -10731,7 +11463,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>625</v>
+        <v>786</v>
       </c>
       <c r="B270" t="s">
         <v>63</v>
@@ -10757,7 +11489,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>626</v>
+        <v>787</v>
       </c>
       <c r="B271" t="s">
         <v>63</v>
@@ -10783,7 +11515,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>627</v>
+        <v>788</v>
       </c>
       <c r="B272" t="s">
         <v>63</v>
@@ -10809,7 +11541,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>628</v>
+        <v>789</v>
       </c>
       <c r="B273" t="s">
         <v>63</v>
@@ -10835,7 +11567,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>629</v>
+        <v>790</v>
       </c>
       <c r="B274" t="s">
         <v>63</v>
@@ -10861,7 +11593,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>630</v>
+        <v>791</v>
       </c>
       <c r="B275" t="s">
         <v>63</v>
@@ -10887,7 +11619,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>631</v>
+        <v>792</v>
       </c>
       <c r="B276" t="s">
         <v>63</v>
@@ -10913,22 +11645,22 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>632</v>
+        <v>793</v>
       </c>
       <c r="B277" t="s">
-        <v>633</v>
+        <v>794</v>
       </c>
       <c r="C277" t="s">
-        <v>634</v>
+        <v>795</v>
       </c>
       <c r="D277" t="s">
-        <v>635</v>
+        <v>796</v>
       </c>
       <c r="E277" t="s">
         <v>63</v>
       </c>
       <c r="F277" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G277" t="s">
         <v>14</v>
@@ -10939,48 +11671,48 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>637</v>
+        <v>798</v>
       </c>
       <c r="B278" t="s">
-        <v>638</v>
+        <v>799</v>
       </c>
       <c r="C278" t="s">
-        <v>639</v>
+        <v>800</v>
       </c>
       <c r="D278" t="s">
-        <v>640</v>
+        <v>801</v>
       </c>
       <c r="E278" t="s">
-        <v>641</v>
+        <v>802</v>
       </c>
       <c r="F278" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G278" t="s">
         <v>35</v>
       </c>
       <c r="H278">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>642</v>
+        <v>803</v>
       </c>
       <c r="B279" t="s">
-        <v>643</v>
+        <v>804</v>
       </c>
       <c r="C279" t="s">
-        <v>644</v>
+        <v>805</v>
       </c>
       <c r="D279" t="s">
-        <v>645</v>
+        <v>806</v>
       </c>
       <c r="E279" t="s">
-        <v>646</v>
+        <v>807</v>
       </c>
       <c r="F279" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G279" t="s">
         <v>35</v>
@@ -10991,22 +11723,22 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>647</v>
+        <v>808</v>
       </c>
       <c r="B280" t="s">
-        <v>648</v>
+        <v>809</v>
       </c>
       <c r="C280" t="s">
-        <v>649</v>
+        <v>810</v>
       </c>
       <c r="D280" t="s">
-        <v>650</v>
+        <v>811</v>
       </c>
       <c r="E280" t="s">
-        <v>651</v>
+        <v>812</v>
       </c>
       <c r="F280" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G280" t="s">
         <v>35</v>
@@ -11017,22 +11749,22 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>652</v>
+        <v>813</v>
       </c>
       <c r="B281" t="s">
-        <v>653</v>
+        <v>814</v>
       </c>
       <c r="C281" t="s">
-        <v>654</v>
+        <v>815</v>
       </c>
       <c r="D281" t="s">
-        <v>655</v>
+        <v>816</v>
       </c>
       <c r="E281" t="s">
-        <v>656</v>
+        <v>817</v>
       </c>
       <c r="F281" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G281" t="s">
         <v>61</v>
@@ -11043,22 +11775,22 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>657</v>
+        <v>818</v>
       </c>
       <c r="B282" t="s">
-        <v>658</v>
+        <v>819</v>
       </c>
       <c r="C282" t="s">
-        <v>659</v>
+        <v>820</v>
       </c>
       <c r="D282" t="s">
-        <v>660</v>
+        <v>821</v>
       </c>
       <c r="E282" t="s">
-        <v>661</v>
+        <v>822</v>
       </c>
       <c r="F282" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G282" t="s">
         <v>61</v>
@@ -11069,22 +11801,22 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>662</v>
+        <v>823</v>
       </c>
       <c r="B283" t="s">
-        <v>663</v>
+        <v>824</v>
       </c>
       <c r="C283" t="s">
-        <v>664</v>
+        <v>825</v>
       </c>
       <c r="D283" t="s">
-        <v>665</v>
+        <v>826</v>
       </c>
       <c r="E283" t="s">
-        <v>666</v>
+        <v>827</v>
       </c>
       <c r="F283" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G283" t="s">
         <v>61</v>
@@ -11095,22 +11827,22 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>667</v>
+        <v>828</v>
       </c>
       <c r="B284" t="s">
-        <v>668</v>
+        <v>829</v>
       </c>
       <c r="C284" t="s">
-        <v>669</v>
+        <v>830</v>
       </c>
       <c r="D284" t="s">
-        <v>670</v>
+        <v>831</v>
       </c>
       <c r="E284" t="s">
-        <v>671</v>
+        <v>832</v>
       </c>
       <c r="F284" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G284" t="s">
         <v>61</v>
@@ -11121,85 +11853,85 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>672</v>
+        <v>833</v>
       </c>
       <c r="B285" t="s">
-        <v>673</v>
+        <v>834</v>
       </c>
       <c r="C285" t="s">
-        <v>674</v>
+        <v>835</v>
       </c>
       <c r="D285" t="s">
-        <v>675</v>
+        <v>836</v>
       </c>
       <c r="E285" t="s">
-        <v>676</v>
+        <v>837</v>
       </c>
       <c r="F285" t="s">
-        <v>636</v>
+        <v>797</v>
       </c>
       <c r="G285" t="s">
         <v>61</v>
       </c>
       <c r="H285">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>677</v>
+        <v>838</v>
       </c>
       <c r="B286" t="s">
-        <v>63</v>
+        <v>839</v>
       </c>
       <c r="C286" t="s">
-        <v>63</v>
+        <v>840</v>
       </c>
       <c r="D286" t="s">
-        <v>63</v>
+        <v>841</v>
       </c>
       <c r="E286" t="s">
-        <v>63</v>
+        <v>842</v>
       </c>
       <c r="F286" t="s">
-        <v>63</v>
+        <v>797</v>
       </c>
       <c r="G286" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>678</v>
+        <v>843</v>
       </c>
       <c r="B287" t="s">
-        <v>63</v>
+        <v>844</v>
       </c>
       <c r="C287" t="s">
-        <v>63</v>
+        <v>845</v>
       </c>
       <c r="D287" t="s">
-        <v>63</v>
+        <v>846</v>
       </c>
       <c r="E287" t="s">
-        <v>63</v>
+        <v>847</v>
       </c>
       <c r="F287" t="s">
-        <v>63</v>
+        <v>797</v>
       </c>
       <c r="G287" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>679</v>
+        <v>848</v>
       </c>
       <c r="B288" t="s">
         <v>63</v>
@@ -11225,7 +11957,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>680</v>
+        <v>849</v>
       </c>
       <c r="B289" t="s">
         <v>63</v>
@@ -11251,7 +11983,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
       <c r="B290" t="s">
         <v>63</v>
@@ -11277,7 +12009,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>682</v>
+        <v>851</v>
       </c>
       <c r="B291" t="s">
         <v>63</v>
@@ -11303,7 +12035,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>683</v>
+        <v>852</v>
       </c>
       <c r="B292" t="s">
         <v>63</v>
@@ -11329,7 +12061,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>684</v>
+        <v>853</v>
       </c>
       <c r="B293" t="s">
         <v>63</v>
@@ -11355,7 +12087,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>685</v>
+        <v>854</v>
       </c>
       <c r="B294" t="s">
         <v>63</v>
@@ -11381,7 +12113,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>686</v>
+        <v>855</v>
       </c>
       <c r="B295" t="s">
         <v>63</v>
@@ -11407,7 +12139,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>687</v>
+        <v>856</v>
       </c>
       <c r="B296" t="s">
         <v>63</v>
@@ -11433,7 +12165,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>688</v>
+        <v>857</v>
       </c>
       <c r="B297" t="s">
         <v>63</v>
@@ -11459,7 +12191,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>689</v>
+        <v>858</v>
       </c>
       <c r="B298" t="s">
         <v>63</v>
@@ -11485,7 +12217,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>690</v>
+        <v>859</v>
       </c>
       <c r="B299" t="s">
         <v>63</v>
@@ -11511,7 +12243,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>691</v>
+        <v>860</v>
       </c>
       <c r="B300" t="s">
         <v>63</v>
@@ -11537,7 +12269,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>692</v>
+        <v>861</v>
       </c>
       <c r="B301" t="s">
         <v>63</v>
@@ -11563,48 +12295,48 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>693</v>
+        <v>862</v>
       </c>
       <c r="B302" t="s">
-        <v>694</v>
+        <v>863</v>
       </c>
       <c r="C302" t="s">
-        <v>695</v>
+        <v>864</v>
       </c>
       <c r="D302" t="s">
-        <v>696</v>
+        <v>865</v>
       </c>
       <c r="E302" t="s">
-        <v>697</v>
+        <v>866</v>
       </c>
       <c r="F302" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
       </c>
       <c r="H302">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>699</v>
+        <v>868</v>
       </c>
       <c r="B303" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
       <c r="C303" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
       <c r="D303" t="s">
-        <v>702</v>
+        <v>871</v>
       </c>
       <c r="E303" t="s">
-        <v>703</v>
+        <v>872</v>
       </c>
       <c r="F303" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G303" t="s">
         <v>14</v>
@@ -11615,48 +12347,48 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="B304" t="s">
-        <v>705</v>
+        <v>874</v>
       </c>
       <c r="C304" t="s">
-        <v>706</v>
+        <v>875</v>
       </c>
       <c r="D304" t="s">
-        <v>707</v>
+        <v>876</v>
       </c>
       <c r="E304" t="s">
-        <v>708</v>
+        <v>877</v>
       </c>
       <c r="F304" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G304" t="s">
         <v>14</v>
       </c>
       <c r="H304">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
       <c r="B305" t="s">
-        <v>710</v>
+        <v>879</v>
       </c>
       <c r="C305" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="D305" t="s">
-        <v>712</v>
+        <v>881</v>
       </c>
       <c r="E305" t="s">
-        <v>713</v>
+        <v>882</v>
       </c>
       <c r="F305" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G305" t="s">
         <v>35</v>
@@ -11667,48 +12399,48 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>714</v>
+        <v>883</v>
       </c>
       <c r="B306" t="s">
-        <v>715</v>
+        <v>884</v>
       </c>
       <c r="C306" t="s">
-        <v>716</v>
+        <v>885</v>
       </c>
       <c r="D306" t="s">
-        <v>717</v>
+        <v>886</v>
       </c>
       <c r="E306" t="s">
-        <v>718</v>
+        <v>887</v>
       </c>
       <c r="F306" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G306" t="s">
         <v>35</v>
       </c>
       <c r="H306">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>719</v>
+        <v>888</v>
       </c>
       <c r="B307" t="s">
-        <v>720</v>
+        <v>889</v>
       </c>
       <c r="C307" t="s">
-        <v>721</v>
+        <v>890</v>
       </c>
       <c r="D307" t="s">
-        <v>722</v>
+        <v>891</v>
       </c>
       <c r="E307" t="s">
-        <v>723</v>
+        <v>892</v>
       </c>
       <c r="F307" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G307" t="s">
         <v>35</v>
@@ -11719,48 +12451,48 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>724</v>
+        <v>893</v>
       </c>
       <c r="B308" t="s">
-        <v>725</v>
+        <v>894</v>
       </c>
       <c r="C308" t="s">
-        <v>726</v>
+        <v>895</v>
       </c>
       <c r="D308" t="s">
-        <v>727</v>
+        <v>896</v>
       </c>
       <c r="E308" t="s">
-        <v>728</v>
+        <v>897</v>
       </c>
       <c r="F308" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G308" t="s">
         <v>61</v>
       </c>
       <c r="H308">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>729</v>
+        <v>898</v>
       </c>
       <c r="B309" t="s">
-        <v>730</v>
+        <v>899</v>
       </c>
       <c r="C309" t="s">
-        <v>731</v>
+        <v>900</v>
       </c>
       <c r="D309" t="s">
-        <v>732</v>
+        <v>901</v>
       </c>
       <c r="E309" t="s">
-        <v>733</v>
+        <v>902</v>
       </c>
       <c r="F309" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="G309" t="s">
         <v>61</v>
@@ -11771,77 +12503,77 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>734</v>
+        <v>903</v>
       </c>
       <c r="B310" t="s">
-        <v>63</v>
+        <v>904</v>
       </c>
       <c r="C310" t="s">
-        <v>63</v>
+        <v>905</v>
       </c>
       <c r="D310" t="s">
-        <v>63</v>
+        <v>906</v>
       </c>
       <c r="E310" t="s">
-        <v>63</v>
+        <v>907</v>
       </c>
       <c r="F310" t="s">
-        <v>63</v>
+        <v>867</v>
       </c>
       <c r="G310" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>735</v>
+        <v>908</v>
       </c>
       <c r="B311" t="s">
-        <v>63</v>
+        <v>909</v>
       </c>
       <c r="C311" t="s">
-        <v>63</v>
+        <v>910</v>
       </c>
       <c r="D311" t="s">
-        <v>63</v>
+        <v>911</v>
       </c>
       <c r="E311" t="s">
-        <v>63</v>
+        <v>912</v>
       </c>
       <c r="F311" t="s">
-        <v>63</v>
+        <v>867</v>
       </c>
       <c r="G311" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>736</v>
+        <v>913</v>
       </c>
       <c r="B312" t="s">
-        <v>63</v>
+        <v>914</v>
       </c>
       <c r="C312" t="s">
-        <v>63</v>
+        <v>915</v>
       </c>
       <c r="D312" t="s">
-        <v>63</v>
+        <v>916</v>
       </c>
       <c r="E312" t="s">
-        <v>63</v>
+        <v>917</v>
       </c>
       <c r="F312" t="s">
-        <v>63</v>
+        <v>867</v>
       </c>
       <c r="G312" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -11849,33 +12581,33 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>737</v>
+        <v>918</v>
       </c>
       <c r="B313" t="s">
-        <v>63</v>
+        <v>919</v>
       </c>
       <c r="C313" t="s">
-        <v>63</v>
+        <v>920</v>
       </c>
       <c r="D313" t="s">
-        <v>63</v>
+        <v>921</v>
       </c>
       <c r="E313" t="s">
         <v>63</v>
       </c>
       <c r="F313" t="s">
-        <v>63</v>
+        <v>867</v>
       </c>
       <c r="G313" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>738</v>
+        <v>922</v>
       </c>
       <c r="B314" t="s">
         <v>63</v>
@@ -11901,7 +12633,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>739</v>
+        <v>923</v>
       </c>
       <c r="B315" t="s">
         <v>63</v>
@@ -11927,7 +12659,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>740</v>
+        <v>924</v>
       </c>
       <c r="B316" t="s">
         <v>63</v>
@@ -11953,7 +12685,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>741</v>
+        <v>925</v>
       </c>
       <c r="B317" t="s">
         <v>63</v>
@@ -11979,7 +12711,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>742</v>
+        <v>926</v>
       </c>
       <c r="B318" t="s">
         <v>63</v>
@@ -12005,7 +12737,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>743</v>
+        <v>927</v>
       </c>
       <c r="B319" t="s">
         <v>63</v>
@@ -12031,7 +12763,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>744</v>
+        <v>928</v>
       </c>
       <c r="B320" t="s">
         <v>63</v>
@@ -12057,7 +12789,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>745</v>
+        <v>929</v>
       </c>
       <c r="B321" t="s">
         <v>63</v>
@@ -12083,7 +12815,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>746</v>
+        <v>930</v>
       </c>
       <c r="B322" t="s">
         <v>63</v>
@@ -12109,7 +12841,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>747</v>
+        <v>931</v>
       </c>
       <c r="B323" t="s">
         <v>63</v>
@@ -12135,7 +12867,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>748</v>
+        <v>932</v>
       </c>
       <c r="B324" t="s">
         <v>63</v>
@@ -12161,7 +12893,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>749</v>
+        <v>933</v>
       </c>
       <c r="B325" t="s">
         <v>63</v>
@@ -12187,7 +12919,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>750</v>
+        <v>934</v>
       </c>
       <c r="B326" t="s">
         <v>63</v>
@@ -12213,48 +12945,48 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>751</v>
+        <v>935</v>
       </c>
       <c r="B327" t="s">
-        <v>752</v>
+        <v>936</v>
       </c>
       <c r="C327" t="s">
-        <v>753</v>
+        <v>937</v>
       </c>
       <c r="D327" t="s">
-        <v>754</v>
+        <v>938</v>
       </c>
       <c r="E327" t="s">
-        <v>755</v>
+        <v>939</v>
       </c>
       <c r="F327" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G327" t="s">
         <v>14</v>
       </c>
       <c r="H327">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>757</v>
+        <v>941</v>
       </c>
       <c r="B328" t="s">
-        <v>758</v>
+        <v>942</v>
       </c>
       <c r="C328" t="s">
         <v>63</v>
       </c>
       <c r="D328" t="s">
-        <v>759</v>
+        <v>943</v>
       </c>
       <c r="E328" t="s">
         <v>63</v>
       </c>
       <c r="F328" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G328" t="s">
         <v>35</v>
@@ -12265,48 +12997,48 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>760</v>
+        <v>944</v>
       </c>
       <c r="B329" t="s">
-        <v>761</v>
+        <v>945</v>
       </c>
       <c r="C329" t="s">
-        <v>762</v>
+        <v>946</v>
       </c>
       <c r="D329" t="s">
-        <v>763</v>
+        <v>947</v>
       </c>
       <c r="E329" t="s">
-        <v>764</v>
+        <v>948</v>
       </c>
       <c r="F329" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G329" t="s">
         <v>61</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>765</v>
+        <v>949</v>
       </c>
       <c r="B330" t="s">
-        <v>766</v>
+        <v>950</v>
       </c>
       <c r="C330" t="s">
-        <v>767</v>
+        <v>951</v>
       </c>
       <c r="D330" t="s">
-        <v>768</v>
+        <v>952</v>
       </c>
       <c r="E330" t="s">
-        <v>769</v>
+        <v>953</v>
       </c>
       <c r="F330" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G330" t="s">
         <v>61</v>
@@ -12317,48 +13049,48 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>770</v>
+        <v>954</v>
       </c>
       <c r="B331" t="s">
-        <v>771</v>
+        <v>955</v>
       </c>
       <c r="C331" t="s">
-        <v>772</v>
+        <v>956</v>
       </c>
       <c r="D331" t="s">
-        <v>773</v>
+        <v>957</v>
       </c>
       <c r="E331" t="s">
-        <v>774</v>
+        <v>958</v>
       </c>
       <c r="F331" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G331" t="s">
         <v>61</v>
       </c>
       <c r="H331">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>775</v>
+        <v>959</v>
       </c>
       <c r="B332" t="s">
-        <v>776</v>
+        <v>960</v>
       </c>
       <c r="C332" t="s">
-        <v>777</v>
+        <v>961</v>
       </c>
       <c r="D332" t="s">
         <v>63</v>
       </c>
       <c r="E332" t="s">
-        <v>778</v>
+        <v>962</v>
       </c>
       <c r="F332" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G332" t="s">
         <v>61</v>
@@ -12369,22 +13101,22 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>779</v>
+        <v>963</v>
       </c>
       <c r="B333" t="s">
-        <v>780</v>
+        <v>964</v>
       </c>
       <c r="C333" t="s">
-        <v>781</v>
+        <v>965</v>
       </c>
       <c r="D333" t="s">
-        <v>782</v>
+        <v>966</v>
       </c>
       <c r="E333" t="s">
-        <v>783</v>
+        <v>967</v>
       </c>
       <c r="F333" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G333" t="s">
         <v>61</v>
@@ -12395,22 +13127,22 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>784</v>
+        <v>968</v>
       </c>
       <c r="B334" t="s">
-        <v>785</v>
+        <v>969</v>
       </c>
       <c r="C334" t="s">
-        <v>786</v>
+        <v>970</v>
       </c>
       <c r="D334" t="s">
-        <v>787</v>
+        <v>971</v>
       </c>
       <c r="E334" t="s">
-        <v>788</v>
+        <v>972</v>
       </c>
       <c r="F334" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G334" t="s">
         <v>61</v>
@@ -12421,22 +13153,22 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>789</v>
+        <v>973</v>
       </c>
       <c r="B335" t="s">
-        <v>790</v>
+        <v>974</v>
       </c>
       <c r="C335" t="s">
-        <v>791</v>
+        <v>975</v>
       </c>
       <c r="D335" t="s">
-        <v>792</v>
+        <v>976</v>
       </c>
       <c r="E335" t="s">
-        <v>793</v>
+        <v>977</v>
       </c>
       <c r="F335" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G335" t="s">
         <v>61</v>
@@ -12447,22 +13179,22 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>794</v>
+        <v>978</v>
       </c>
       <c r="B336" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C336" t="s">
-        <v>795</v>
+        <v>979</v>
       </c>
       <c r="D336" t="s">
-        <v>796</v>
+        <v>980</v>
       </c>
       <c r="E336" t="s">
-        <v>797</v>
+        <v>981</v>
       </c>
       <c r="F336" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G336" t="s">
         <v>61</v>
@@ -12473,22 +13205,22 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>798</v>
+        <v>982</v>
       </c>
       <c r="B337" t="s">
-        <v>799</v>
+        <v>983</v>
       </c>
       <c r="C337" t="s">
-        <v>800</v>
+        <v>984</v>
       </c>
       <c r="D337" t="s">
-        <v>801</v>
+        <v>985</v>
       </c>
       <c r="E337" t="s">
-        <v>802</v>
+        <v>986</v>
       </c>
       <c r="F337" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G337" t="s">
         <v>61</v>
@@ -12499,22 +13231,22 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>803</v>
+        <v>987</v>
       </c>
       <c r="B338" t="s">
-        <v>804</v>
+        <v>988</v>
       </c>
       <c r="C338" t="s">
-        <v>800</v>
+        <v>984</v>
       </c>
       <c r="D338" t="s">
-        <v>805</v>
+        <v>989</v>
       </c>
       <c r="E338" t="s">
-        <v>806</v>
+        <v>990</v>
       </c>
       <c r="F338" t="s">
-        <v>756</v>
+        <v>940</v>
       </c>
       <c r="G338" t="s">
         <v>61</v>
@@ -12525,33 +13257,33 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>807</v>
+        <v>991</v>
       </c>
       <c r="B339" t="s">
-        <v>63</v>
+        <v>992</v>
       </c>
       <c r="C339" t="s">
-        <v>63</v>
+        <v>993</v>
       </c>
       <c r="D339" t="s">
-        <v>63</v>
+        <v>994</v>
       </c>
       <c r="E339" t="s">
-        <v>63</v>
+        <v>995</v>
       </c>
       <c r="F339" t="s">
-        <v>63</v>
+        <v>940</v>
       </c>
       <c r="G339" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>808</v>
+        <v>996</v>
       </c>
       <c r="B340" t="s">
         <v>63</v>
@@ -12577,7 +13309,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>809</v>
+        <v>997</v>
       </c>
       <c r="B341" t="s">
         <v>63</v>
@@ -12603,7 +13335,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>810</v>
+        <v>998</v>
       </c>
       <c r="B342" t="s">
         <v>63</v>
@@ -12629,7 +13361,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>811</v>
+        <v>999</v>
       </c>
       <c r="B343" t="s">
         <v>63</v>
@@ -12655,7 +13387,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="B344" t="s">
         <v>63</v>
@@ -12681,7 +13413,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>813</v>
+        <v>1001</v>
       </c>
       <c r="B345" t="s">
         <v>63</v>
@@ -12707,7 +13439,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>814</v>
+        <v>1002</v>
       </c>
       <c r="B346" t="s">
         <v>63</v>
@@ -12733,7 +13465,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>815</v>
+        <v>1003</v>
       </c>
       <c r="B347" t="s">
         <v>63</v>
@@ -12759,7 +13491,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>816</v>
+        <v>1004</v>
       </c>
       <c r="B348" t="s">
         <v>63</v>
@@ -12785,7 +13517,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>817</v>
+        <v>1005</v>
       </c>
       <c r="B349" t="s">
         <v>63</v>
@@ -12811,7 +13543,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>818</v>
+        <v>1006</v>
       </c>
       <c r="B350" t="s">
         <v>63</v>
@@ -12837,7 +13569,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>819</v>
+        <v>1007</v>
       </c>
       <c r="B351" t="s">
         <v>63</v>
@@ -12863,22 +13595,22 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>820</v>
+        <v>1008</v>
       </c>
       <c r="B352" t="s">
-        <v>821</v>
+        <v>1009</v>
       </c>
       <c r="C352" t="s">
-        <v>822</v>
+        <v>1010</v>
       </c>
       <c r="D352" t="s">
-        <v>823</v>
+        <v>1011</v>
       </c>
       <c r="E352" t="s">
-        <v>824</v>
+        <v>1012</v>
       </c>
       <c r="F352" t="s">
-        <v>825</v>
+        <v>1013</v>
       </c>
       <c r="G352" t="s">
         <v>14</v>
@@ -12889,22 +13621,22 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>826</v>
+        <v>1014</v>
       </c>
       <c r="B353" t="s">
-        <v>827</v>
+        <v>1015</v>
       </c>
       <c r="C353" t="s">
-        <v>828</v>
+        <v>1016</v>
       </c>
       <c r="D353" t="s">
-        <v>829</v>
+        <v>1017</v>
       </c>
       <c r="E353" t="s">
-        <v>830</v>
+        <v>1018</v>
       </c>
       <c r="F353" t="s">
-        <v>825</v>
+        <v>1013</v>
       </c>
       <c r="G353" t="s">
         <v>35</v>
@@ -12915,22 +13647,22 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>831</v>
+        <v>1019</v>
       </c>
       <c r="B354" t="s">
-        <v>832</v>
+        <v>1020</v>
       </c>
       <c r="C354" t="s">
-        <v>833</v>
+        <v>1021</v>
       </c>
       <c r="D354" t="s">
-        <v>834</v>
+        <v>1022</v>
       </c>
       <c r="E354" t="s">
-        <v>835</v>
+        <v>1023</v>
       </c>
       <c r="F354" t="s">
-        <v>825</v>
+        <v>1013</v>
       </c>
       <c r="G354" t="s">
         <v>61</v>
@@ -12941,7 +13673,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>836</v>
+        <v>1024</v>
       </c>
       <c r="B355" t="s">
         <v>63</v>
@@ -12967,7 +13699,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>837</v>
+        <v>1025</v>
       </c>
       <c r="B356" t="s">
         <v>63</v>
@@ -12993,7 +13725,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>838</v>
+        <v>1026</v>
       </c>
       <c r="B357" t="s">
         <v>63</v>
@@ -13019,7 +13751,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>839</v>
+        <v>1027</v>
       </c>
       <c r="B358" t="s">
         <v>63</v>
@@ -13045,7 +13777,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>840</v>
+        <v>1028</v>
       </c>
       <c r="B359" t="s">
         <v>63</v>
@@ -13071,7 +13803,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>841</v>
+        <v>1029</v>
       </c>
       <c r="B360" t="s">
         <v>63</v>
@@ -13097,7 +13829,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>842</v>
+        <v>1030</v>
       </c>
       <c r="B361" t="s">
         <v>63</v>
@@ -13123,7 +13855,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>843</v>
+        <v>1031</v>
       </c>
       <c r="B362" t="s">
         <v>63</v>
@@ -13149,7 +13881,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>844</v>
+        <v>1032</v>
       </c>
       <c r="B363" t="s">
         <v>63</v>
@@ -13175,7 +13907,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>845</v>
+        <v>1033</v>
       </c>
       <c r="B364" t="s">
         <v>63</v>
@@ -13201,7 +13933,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>846</v>
+        <v>1034</v>
       </c>
       <c r="B365" t="s">
         <v>63</v>
@@ -13227,7 +13959,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>847</v>
+        <v>1035</v>
       </c>
       <c r="B366" t="s">
         <v>63</v>
@@ -13253,7 +13985,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>848</v>
+        <v>1036</v>
       </c>
       <c r="B367" t="s">
         <v>63</v>
@@ -13279,7 +14011,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>849</v>
+        <v>1037</v>
       </c>
       <c r="B368" t="s">
         <v>63</v>
@@ -13305,7 +14037,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>850</v>
+        <v>1038</v>
       </c>
       <c r="B369" t="s">
         <v>63</v>
@@ -13331,7 +14063,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>851</v>
+        <v>1039</v>
       </c>
       <c r="B370" t="s">
         <v>63</v>
@@ -13357,7 +14089,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>852</v>
+        <v>1040</v>
       </c>
       <c r="B371" t="s">
         <v>63</v>
@@ -13383,7 +14115,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>853</v>
+        <v>1041</v>
       </c>
       <c r="B372" t="s">
         <v>63</v>
@@ -13409,7 +14141,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>854</v>
+        <v>1042</v>
       </c>
       <c r="B373" t="s">
         <v>63</v>
@@ -13435,7 +14167,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>855</v>
+        <v>1043</v>
       </c>
       <c r="B374" t="s">
         <v>63</v>
@@ -13461,7 +14193,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>856</v>
+        <v>1044</v>
       </c>
       <c r="B375" t="s">
         <v>63</v>
@@ -13487,7 +14219,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>857</v>
+        <v>1045</v>
       </c>
       <c r="B376" t="s">
         <v>63</v>
@@ -13513,22 +14245,22 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>858</v>
+        <v>1046</v>
       </c>
       <c r="B377" t="s">
-        <v>859</v>
+        <v>1047</v>
       </c>
       <c r="C377" t="s">
-        <v>860</v>
+        <v>1048</v>
       </c>
       <c r="D377" t="s">
-        <v>861</v>
+        <v>1049</v>
       </c>
       <c r="E377" t="s">
-        <v>862</v>
+        <v>1050</v>
       </c>
       <c r="F377" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G377" t="s">
         <v>14</v>
@@ -13539,48 +14271,48 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>864</v>
+        <v>1052</v>
       </c>
       <c r="B378" t="s">
-        <v>865</v>
+        <v>1053</v>
       </c>
       <c r="C378" t="s">
-        <v>866</v>
+        <v>1054</v>
       </c>
       <c r="D378" t="s">
-        <v>867</v>
+        <v>1055</v>
       </c>
       <c r="E378" t="s">
-        <v>868</v>
+        <v>1056</v>
       </c>
       <c r="F378" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G378" t="s">
         <v>14</v>
       </c>
       <c r="H378">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>869</v>
+        <v>1057</v>
       </c>
       <c r="B379" t="s">
-        <v>870</v>
+        <v>1058</v>
       </c>
       <c r="C379" t="s">
-        <v>871</v>
+        <v>1059</v>
       </c>
       <c r="D379" t="s">
-        <v>872</v>
+        <v>1060</v>
       </c>
       <c r="E379" t="s">
-        <v>873</v>
+        <v>1061</v>
       </c>
       <c r="F379" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G379" t="s">
         <v>35</v>
@@ -13591,22 +14323,22 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>874</v>
+        <v>1062</v>
       </c>
       <c r="B380" t="s">
-        <v>875</v>
+        <v>1063</v>
       </c>
       <c r="C380" t="s">
-        <v>876</v>
+        <v>1064</v>
       </c>
       <c r="D380" t="s">
-        <v>877</v>
+        <v>1065</v>
       </c>
       <c r="E380" t="s">
-        <v>878</v>
+        <v>1066</v>
       </c>
       <c r="F380" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G380" t="s">
         <v>61</v>
@@ -13617,22 +14349,22 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>879</v>
+        <v>1067</v>
       </c>
       <c r="B381" t="s">
-        <v>880</v>
+        <v>1068</v>
       </c>
       <c r="C381" t="s">
-        <v>881</v>
+        <v>1069</v>
       </c>
       <c r="D381" t="s">
-        <v>882</v>
+        <v>1070</v>
       </c>
       <c r="E381" t="s">
-        <v>883</v>
+        <v>1071</v>
       </c>
       <c r="F381" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G381" t="s">
         <v>61</v>
@@ -13643,22 +14375,22 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>884</v>
+        <v>1072</v>
       </c>
       <c r="B382" t="s">
-        <v>885</v>
+        <v>1073</v>
       </c>
       <c r="C382" t="s">
-        <v>886</v>
+        <v>1074</v>
       </c>
       <c r="D382" t="s">
-        <v>887</v>
+        <v>1075</v>
       </c>
       <c r="E382" t="s">
-        <v>888</v>
+        <v>1076</v>
       </c>
       <c r="F382" t="s">
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="G382" t="s">
         <v>61</v>
@@ -13669,51 +14401,51 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>889</v>
+        <v>1077</v>
       </c>
       <c r="B383" t="s">
-        <v>63</v>
+        <v>1078</v>
       </c>
       <c r="C383" t="s">
-        <v>63</v>
+        <v>1079</v>
       </c>
       <c r="D383" t="s">
-        <v>63</v>
+        <v>1080</v>
       </c>
       <c r="E383" t="s">
-        <v>63</v>
+        <v>1081</v>
       </c>
       <c r="F383" t="s">
-        <v>63</v>
+        <v>1051</v>
       </c>
       <c r="G383" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>890</v>
+        <v>1082</v>
       </c>
       <c r="B384" t="s">
-        <v>63</v>
+        <v>1083</v>
       </c>
       <c r="C384" t="s">
-        <v>63</v>
+        <v>1084</v>
       </c>
       <c r="D384" t="s">
-        <v>63</v>
+        <v>1085</v>
       </c>
       <c r="E384" t="s">
-        <v>63</v>
+        <v>1086</v>
       </c>
       <c r="F384" t="s">
-        <v>63</v>
+        <v>1051</v>
       </c>
       <c r="G384" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H384">
         <v>0</v>
@@ -13721,7 +14453,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>891</v>
+        <v>1087</v>
       </c>
       <c r="B385" t="s">
         <v>63</v>
@@ -13747,7 +14479,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>892</v>
+        <v>1088</v>
       </c>
       <c r="B386" t="s">
         <v>63</v>
@@ -13773,7 +14505,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>893</v>
+        <v>1089</v>
       </c>
       <c r="B387" t="s">
         <v>63</v>
@@ -13799,7 +14531,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>894</v>
+        <v>1090</v>
       </c>
       <c r="B388" t="s">
         <v>63</v>
@@ -13825,33 +14557,33 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>895</v>
+        <v>1091</v>
       </c>
       <c r="B389" t="s">
-        <v>63</v>
+        <v>1092</v>
       </c>
       <c r="C389" t="s">
-        <v>63</v>
+        <v>1093</v>
       </c>
       <c r="D389" t="s">
-        <v>63</v>
+        <v>1094</v>
       </c>
       <c r="E389" t="s">
-        <v>63</v>
+        <v>1095</v>
       </c>
       <c r="F389" t="s">
-        <v>63</v>
+        <v>1051</v>
       </c>
       <c r="G389" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>896</v>
+        <v>1096</v>
       </c>
       <c r="B390" t="s">
         <v>63</v>
@@ -13877,7 +14609,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>897</v>
+        <v>1097</v>
       </c>
       <c r="B391" t="s">
         <v>63</v>
@@ -13903,7 +14635,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>898</v>
+        <v>1098</v>
       </c>
       <c r="B392" t="s">
         <v>63</v>
@@ -13929,7 +14661,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>899</v>
+        <v>1099</v>
       </c>
       <c r="B393" t="s">
         <v>63</v>
@@ -13955,7 +14687,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="B394" t="s">
         <v>63</v>
@@ -13981,7 +14713,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>901</v>
+        <v>1101</v>
       </c>
       <c r="B395" t="s">
         <v>63</v>
@@ -14007,7 +14739,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>902</v>
+        <v>1102</v>
       </c>
       <c r="B396" t="s">
         <v>63</v>
@@ -14033,7 +14765,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>903</v>
+        <v>1103</v>
       </c>
       <c r="B397" t="s">
         <v>63</v>
@@ -14059,7 +14791,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>904</v>
+        <v>1104</v>
       </c>
       <c r="B398" t="s">
         <v>63</v>
@@ -14085,7 +14817,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>905</v>
+        <v>1105</v>
       </c>
       <c r="B399" t="s">
         <v>63</v>
@@ -14111,7 +14843,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>906</v>
+        <v>1106</v>
       </c>
       <c r="B400" t="s">
         <v>63</v>
@@ -14137,7 +14869,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>907</v>
+        <v>1107</v>
       </c>
       <c r="B401" t="s">
         <v>63</v>
@@ -14163,48 +14895,48 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>908</v>
+        <v>1108</v>
       </c>
       <c r="B402" t="s">
-        <v>909</v>
+        <v>1109</v>
       </c>
       <c r="C402" t="s">
-        <v>910</v>
+        <v>1110</v>
       </c>
       <c r="D402" t="s">
-        <v>911</v>
+        <v>1111</v>
       </c>
       <c r="E402" t="s">
-        <v>912</v>
+        <v>1112</v>
       </c>
       <c r="F402" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G402" t="s">
         <v>35</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>914</v>
+        <v>1114</v>
       </c>
       <c r="B403" t="s">
-        <v>915</v>
+        <v>1115</v>
       </c>
       <c r="C403" t="s">
-        <v>916</v>
+        <v>1116</v>
       </c>
       <c r="D403" t="s">
-        <v>917</v>
+        <v>1117</v>
       </c>
       <c r="E403" t="s">
-        <v>918</v>
+        <v>1118</v>
       </c>
       <c r="F403" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G403" t="s">
         <v>35</v>
@@ -14215,48 +14947,48 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>919</v>
+        <v>1119</v>
       </c>
       <c r="B404" t="s">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="C404" t="s">
-        <v>921</v>
+        <v>1121</v>
       </c>
       <c r="D404" t="s">
-        <v>922</v>
+        <v>1122</v>
       </c>
       <c r="E404" t="s">
-        <v>923</v>
+        <v>1123</v>
       </c>
       <c r="F404" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G404" t="s">
         <v>35</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="B405" t="s">
-        <v>925</v>
+        <v>1125</v>
       </c>
       <c r="C405" t="s">
-        <v>926</v>
+        <v>1126</v>
       </c>
       <c r="D405" t="s">
-        <v>927</v>
+        <v>1127</v>
       </c>
       <c r="E405" t="s">
-        <v>928</v>
+        <v>1128</v>
       </c>
       <c r="F405" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G405" t="s">
         <v>35</v>
@@ -14267,22 +14999,22 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>929</v>
+        <v>1129</v>
       </c>
       <c r="B406" t="s">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="C406" t="s">
-        <v>931</v>
+        <v>1131</v>
       </c>
       <c r="D406" t="s">
-        <v>932</v>
+        <v>1132</v>
       </c>
       <c r="E406" t="s">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="F406" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G406" t="s">
         <v>35</v>
@@ -14293,33 +15025,33 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>934</v>
+        <v>1134</v>
       </c>
       <c r="B407" t="s">
-        <v>63</v>
+        <v>1135</v>
       </c>
       <c r="C407" t="s">
-        <v>63</v>
+        <v>1136</v>
       </c>
       <c r="D407" t="s">
-        <v>63</v>
+        <v>1137</v>
       </c>
       <c r="E407" t="s">
-        <v>63</v>
+        <v>1138</v>
       </c>
       <c r="F407" t="s">
-        <v>63</v>
+        <v>1113</v>
       </c>
       <c r="G407" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>935</v>
+        <v>1139</v>
       </c>
       <c r="B408" t="s">
         <v>63</v>
@@ -14345,7 +15077,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>936</v>
+        <v>1140</v>
       </c>
       <c r="B409" t="s">
         <v>63</v>
@@ -14371,7 +15103,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>937</v>
+        <v>1141</v>
       </c>
       <c r="B410" t="s">
         <v>63</v>
@@ -14397,7 +15129,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>938</v>
+        <v>1142</v>
       </c>
       <c r="B411" t="s">
         <v>63</v>
@@ -14423,7 +15155,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>939</v>
+        <v>1143</v>
       </c>
       <c r="B412" t="s">
         <v>63</v>
@@ -14449,7 +15181,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>940</v>
+        <v>1144</v>
       </c>
       <c r="B413" t="s">
         <v>63</v>
@@ -14475,7 +15207,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>941</v>
+        <v>1145</v>
       </c>
       <c r="B414" t="s">
         <v>63</v>
@@ -14501,7 +15233,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>942</v>
+        <v>1146</v>
       </c>
       <c r="B415" t="s">
         <v>63</v>
@@ -14527,7 +15259,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>943</v>
+        <v>1147</v>
       </c>
       <c r="B416" t="s">
         <v>63</v>
@@ -14553,7 +15285,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>944</v>
+        <v>1148</v>
       </c>
       <c r="B417" t="s">
         <v>63</v>
@@ -14579,7 +15311,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>945</v>
+        <v>1149</v>
       </c>
       <c r="B418" t="s">
         <v>63</v>
@@ -14605,7 +15337,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>946</v>
+        <v>1150</v>
       </c>
       <c r="B419" t="s">
         <v>63</v>
@@ -14631,7 +15363,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>947</v>
+        <v>1151</v>
       </c>
       <c r="B420" t="s">
         <v>63</v>
@@ -14657,7 +15389,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>948</v>
+        <v>1152</v>
       </c>
       <c r="B421" t="s">
         <v>63</v>
@@ -14683,7 +15415,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>949</v>
+        <v>1153</v>
       </c>
       <c r="B422" t="s">
         <v>63</v>
@@ -14709,7 +15441,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>950</v>
+        <v>1154</v>
       </c>
       <c r="B423" t="s">
         <v>63</v>
@@ -14735,7 +15467,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>951</v>
+        <v>1155</v>
       </c>
       <c r="B424" t="s">
         <v>63</v>
@@ -14761,7 +15493,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>952</v>
+        <v>1156</v>
       </c>
       <c r="B425" t="s">
         <v>63</v>
@@ -14787,7 +15519,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>953</v>
+        <v>1157</v>
       </c>
       <c r="B426" t="s">
         <v>63</v>
@@ -14813,7 +15545,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>954</v>
+        <v>1158</v>
       </c>
       <c r="B427" t="s">
         <v>63</v>
@@ -14839,7 +15571,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>955</v>
+        <v>1159</v>
       </c>
       <c r="B428" t="s">
         <v>63</v>
@@ -14865,7 +15597,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>956</v>
+        <v>1160</v>
       </c>
       <c r="B429" t="s">
         <v>63</v>
@@ -14891,7 +15623,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>957</v>
+        <v>1161</v>
       </c>
       <c r="B430" t="s">
         <v>63</v>
@@ -14917,7 +15649,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>958</v>
+        <v>1162</v>
       </c>
       <c r="B431" t="s">
         <v>63</v>
@@ -14943,7 +15675,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>959</v>
+        <v>1163</v>
       </c>
       <c r="B432" t="s">
         <v>63</v>
@@ -14969,7 +15701,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>960</v>
+        <v>1164</v>
       </c>
       <c r="B433" t="s">
         <v>63</v>
@@ -14995,7 +15727,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>961</v>
+        <v>1165</v>
       </c>
       <c r="B434" t="s">
         <v>63</v>
@@ -15021,7 +15753,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>962</v>
+        <v>1166</v>
       </c>
       <c r="B435" t="s">
         <v>63</v>
@@ -15047,7 +15779,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>963</v>
+        <v>1167</v>
       </c>
       <c r="B436" t="s">
         <v>63</v>
@@ -15073,7 +15805,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>964</v>
+        <v>1168</v>
       </c>
       <c r="B437" t="s">
         <v>63</v>
@@ -15099,7 +15831,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>965</v>
+        <v>1169</v>
       </c>
       <c r="B438" t="s">
         <v>63</v>
@@ -15125,7 +15857,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>966</v>
+        <v>1170</v>
       </c>
       <c r="B439" t="s">
         <v>63</v>
@@ -15151,7 +15883,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>967</v>
+        <v>1171</v>
       </c>
       <c r="B440" t="s">
         <v>63</v>
@@ -15177,7 +15909,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>968</v>
+        <v>1172</v>
       </c>
       <c r="B441" t="s">
         <v>63</v>
@@ -15203,7 +15935,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>969</v>
+        <v>1173</v>
       </c>
       <c r="B442" t="s">
         <v>63</v>
@@ -15229,7 +15961,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>970</v>
+        <v>1174</v>
       </c>
       <c r="B443" t="s">
         <v>63</v>
@@ -15255,7 +15987,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>971</v>
+        <v>1175</v>
       </c>
       <c r="B444" t="s">
         <v>63</v>
@@ -15281,7 +16013,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>972</v>
+        <v>1176</v>
       </c>
       <c r="B445" t="s">
         <v>63</v>
@@ -15307,7 +16039,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>973</v>
+        <v>1177</v>
       </c>
       <c r="B446" t="s">
         <v>63</v>
@@ -15333,7 +16065,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>974</v>
+        <v>1178</v>
       </c>
       <c r="B447" t="s">
         <v>63</v>
@@ -15359,7 +16091,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>975</v>
+        <v>1179</v>
       </c>
       <c r="B448" t="s">
         <v>63</v>
@@ -15385,7 +16117,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>976</v>
+        <v>1180</v>
       </c>
       <c r="B449" t="s">
         <v>63</v>
@@ -15411,7 +16143,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>977</v>
+        <v>1181</v>
       </c>
       <c r="B450" t="s">
         <v>63</v>
@@ -15437,7 +16169,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>978</v>
+        <v>1182</v>
       </c>
       <c r="B451" t="s">
         <v>63</v>
@@ -15463,22 +16195,22 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>979</v>
+        <v>1183</v>
       </c>
       <c r="B452" t="s">
-        <v>980</v>
+        <v>1184</v>
       </c>
       <c r="C452" t="s">
-        <v>981</v>
+        <v>1185</v>
       </c>
       <c r="D452" t="s">
-        <v>982</v>
+        <v>1186</v>
       </c>
       <c r="E452" t="s">
-        <v>983</v>
+        <v>1187</v>
       </c>
       <c r="F452" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G452" t="s">
         <v>14</v>
@@ -15489,22 +16221,22 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>985</v>
+        <v>1189</v>
       </c>
       <c r="B453" t="s">
-        <v>986</v>
+        <v>1190</v>
       </c>
       <c r="C453" t="s">
-        <v>987</v>
+        <v>1191</v>
       </c>
       <c r="D453" t="s">
-        <v>988</v>
+        <v>1192</v>
       </c>
       <c r="E453" t="s">
-        <v>989</v>
+        <v>1193</v>
       </c>
       <c r="F453" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G453" t="s">
         <v>14</v>
@@ -15515,48 +16247,48 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>990</v>
+        <v>1194</v>
       </c>
       <c r="B454" t="s">
-        <v>991</v>
+        <v>1195</v>
       </c>
       <c r="C454" t="s">
-        <v>992</v>
+        <v>1196</v>
       </c>
       <c r="D454" t="s">
-        <v>993</v>
+        <v>1197</v>
       </c>
       <c r="E454" t="s">
-        <v>994</v>
+        <v>1198</v>
       </c>
       <c r="F454" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G454" t="s">
         <v>14</v>
       </c>
       <c r="H454">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>995</v>
+        <v>1199</v>
       </c>
       <c r="B455" t="s">
-        <v>996</v>
+        <v>1200</v>
       </c>
       <c r="C455" t="s">
-        <v>997</v>
+        <v>1201</v>
       </c>
       <c r="D455" t="s">
-        <v>998</v>
+        <v>1202</v>
       </c>
       <c r="E455" t="s">
-        <v>999</v>
+        <v>1203</v>
       </c>
       <c r="F455" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G455" t="s">
         <v>14</v>
@@ -15567,22 +16299,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1000</v>
+        <v>1204</v>
       </c>
       <c r="B456" t="s">
-        <v>1001</v>
+        <v>1205</v>
       </c>
       <c r="C456" t="s">
-        <v>1002</v>
+        <v>1206</v>
       </c>
       <c r="D456" t="s">
-        <v>1003</v>
+        <v>1207</v>
       </c>
       <c r="E456" t="s">
-        <v>1004</v>
+        <v>1208</v>
       </c>
       <c r="F456" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G456" t="s">
         <v>14</v>
@@ -15593,22 +16325,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1005</v>
+        <v>1209</v>
       </c>
       <c r="B457" t="s">
-        <v>1006</v>
+        <v>1210</v>
       </c>
       <c r="C457" t="s">
-        <v>1007</v>
+        <v>1211</v>
       </c>
       <c r="D457" t="s">
-        <v>1008</v>
+        <v>1212</v>
       </c>
       <c r="E457" t="s">
-        <v>1009</v>
+        <v>1213</v>
       </c>
       <c r="F457" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G457" t="s">
         <v>14</v>
@@ -15619,22 +16351,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1010</v>
+        <v>1214</v>
       </c>
       <c r="B458" t="s">
-        <v>1011</v>
+        <v>1215</v>
       </c>
       <c r="C458" t="s">
-        <v>1012</v>
+        <v>1216</v>
       </c>
       <c r="D458" t="s">
-        <v>1013</v>
+        <v>1217</v>
       </c>
       <c r="E458" t="s">
-        <v>1014</v>
+        <v>1218</v>
       </c>
       <c r="F458" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G458" t="s">
         <v>14</v>
@@ -15645,22 +16377,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1015</v>
+        <v>1219</v>
       </c>
       <c r="B459" t="s">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="C459" t="s">
-        <v>1017</v>
+        <v>1221</v>
       </c>
       <c r="D459" t="s">
-        <v>1018</v>
+        <v>1222</v>
       </c>
       <c r="E459" t="s">
-        <v>1019</v>
+        <v>1223</v>
       </c>
       <c r="F459" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G459" t="s">
         <v>14</v>
@@ -15671,22 +16403,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1020</v>
+        <v>1224</v>
       </c>
       <c r="B460" t="s">
-        <v>1021</v>
+        <v>1225</v>
       </c>
       <c r="C460" t="s">
-        <v>1022</v>
+        <v>1226</v>
       </c>
       <c r="D460" t="s">
-        <v>1023</v>
+        <v>1227</v>
       </c>
       <c r="E460" t="s">
-        <v>1024</v>
+        <v>1228</v>
       </c>
       <c r="F460" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G460" t="s">
         <v>14</v>
@@ -15697,22 +16429,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1025</v>
+        <v>1229</v>
       </c>
       <c r="B461" t="s">
-        <v>1026</v>
+        <v>1230</v>
       </c>
       <c r="C461" t="s">
-        <v>1027</v>
+        <v>1231</v>
       </c>
       <c r="D461" t="s">
         <v>63</v>
       </c>
       <c r="E461" t="s">
-        <v>1028</v>
+        <v>1232</v>
       </c>
       <c r="F461" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G461" t="s">
         <v>35</v>
@@ -15723,22 +16455,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1029</v>
+        <v>1233</v>
       </c>
       <c r="B462" t="s">
-        <v>1030</v>
+        <v>1234</v>
       </c>
       <c r="C462" t="s">
-        <v>1031</v>
+        <v>1235</v>
       </c>
       <c r="D462" t="s">
-        <v>1032</v>
+        <v>1236</v>
       </c>
       <c r="E462" t="s">
-        <v>1033</v>
+        <v>1237</v>
       </c>
       <c r="F462" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G462" t="s">
         <v>35</v>
@@ -15749,22 +16481,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1034</v>
+        <v>1238</v>
       </c>
       <c r="B463" t="s">
-        <v>1035</v>
+        <v>1239</v>
       </c>
       <c r="C463" t="s">
-        <v>1036</v>
+        <v>1240</v>
       </c>
       <c r="D463" t="s">
-        <v>1037</v>
+        <v>1241</v>
       </c>
       <c r="E463" t="s">
-        <v>1038</v>
+        <v>1242</v>
       </c>
       <c r="F463" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G463" t="s">
         <v>61</v>
@@ -15775,22 +16507,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1039</v>
+        <v>1243</v>
       </c>
       <c r="B464" t="s">
-        <v>1040</v>
+        <v>1244</v>
       </c>
       <c r="C464" t="s">
-        <v>1041</v>
+        <v>1245</v>
       </c>
       <c r="D464" t="s">
-        <v>1042</v>
+        <v>1246</v>
       </c>
       <c r="E464" t="s">
-        <v>1043</v>
+        <v>1247</v>
       </c>
       <c r="F464" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G464" t="s">
         <v>61</v>
@@ -15801,22 +16533,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1044</v>
+        <v>1248</v>
       </c>
       <c r="B465" t="s">
-        <v>1045</v>
+        <v>1249</v>
       </c>
       <c r="C465" t="s">
-        <v>1046</v>
+        <v>1250</v>
       </c>
       <c r="D465" t="s">
-        <v>1047</v>
+        <v>1251</v>
       </c>
       <c r="E465" t="s">
-        <v>1048</v>
+        <v>1252</v>
       </c>
       <c r="F465" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G465" t="s">
         <v>61</v>
@@ -15827,22 +16559,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1049</v>
+        <v>1253</v>
       </c>
       <c r="B466" t="s">
-        <v>1050</v>
+        <v>1254</v>
       </c>
       <c r="C466" t="s">
-        <v>1051</v>
+        <v>1255</v>
       </c>
       <c r="D466" t="s">
-        <v>1052</v>
+        <v>1256</v>
       </c>
       <c r="E466" t="s">
-        <v>1053</v>
+        <v>1257</v>
       </c>
       <c r="F466" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G466" t="s">
         <v>61</v>
@@ -15853,22 +16585,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1054</v>
+        <v>1258</v>
       </c>
       <c r="B467" t="s">
-        <v>1055</v>
+        <v>1259</v>
       </c>
       <c r="C467" t="s">
-        <v>1056</v>
+        <v>1260</v>
       </c>
       <c r="D467" t="s">
-        <v>1057</v>
+        <v>1261</v>
       </c>
       <c r="E467" t="s">
-        <v>1058</v>
+        <v>1262</v>
       </c>
       <c r="F467" t="s">
-        <v>984</v>
+        <v>1188</v>
       </c>
       <c r="G467" t="s">
         <v>61</v>
@@ -15879,189 +16611,189 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1059</v>
+        <v>1263</v>
       </c>
       <c r="B468" t="s">
-        <v>63</v>
+        <v>1264</v>
       </c>
       <c r="C468" t="s">
-        <v>63</v>
+        <v>1265</v>
       </c>
       <c r="D468" t="s">
-        <v>63</v>
+        <v>1266</v>
       </c>
       <c r="E468" t="s">
-        <v>63</v>
+        <v>1267</v>
       </c>
       <c r="F468" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G468" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1060</v>
+        <v>1268</v>
       </c>
       <c r="B469" t="s">
-        <v>63</v>
+        <v>1269</v>
       </c>
       <c r="C469" t="s">
-        <v>63</v>
+        <v>1270</v>
       </c>
       <c r="D469" t="s">
-        <v>63</v>
+        <v>1271</v>
       </c>
       <c r="E469" t="s">
-        <v>63</v>
+        <v>1272</v>
       </c>
       <c r="F469" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G469" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1061</v>
+        <v>1273</v>
       </c>
       <c r="B470" t="s">
-        <v>63</v>
+        <v>1274</v>
       </c>
       <c r="C470" t="s">
-        <v>63</v>
+        <v>1275</v>
       </c>
       <c r="D470" t="s">
-        <v>63</v>
+        <v>1276</v>
       </c>
       <c r="E470" t="s">
-        <v>63</v>
+        <v>1277</v>
       </c>
       <c r="F470" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G470" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1062</v>
+        <v>1278</v>
       </c>
       <c r="B471" t="s">
-        <v>63</v>
+        <v>1279</v>
       </c>
       <c r="C471" t="s">
-        <v>63</v>
+        <v>1280</v>
       </c>
       <c r="D471" t="s">
-        <v>63</v>
+        <v>1281</v>
       </c>
       <c r="E471" t="s">
-        <v>63</v>
+        <v>1282</v>
       </c>
       <c r="F471" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G471" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1063</v>
+        <v>1283</v>
       </c>
       <c r="B472" t="s">
-        <v>63</v>
+        <v>1284</v>
       </c>
       <c r="C472" t="s">
-        <v>63</v>
+        <v>1285</v>
       </c>
       <c r="D472" t="s">
-        <v>63</v>
+        <v>1286</v>
       </c>
       <c r="E472" t="s">
-        <v>63</v>
+        <v>1287</v>
       </c>
       <c r="F472" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G472" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1064</v>
+        <v>1288</v>
       </c>
       <c r="B473" t="s">
-        <v>63</v>
+        <v>1289</v>
       </c>
       <c r="C473" t="s">
-        <v>63</v>
+        <v>1290</v>
       </c>
       <c r="D473" t="s">
-        <v>63</v>
+        <v>1291</v>
       </c>
       <c r="E473" t="s">
-        <v>63</v>
+        <v>1292</v>
       </c>
       <c r="F473" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G473" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1065</v>
+        <v>1293</v>
       </c>
       <c r="B474" t="s">
-        <v>63</v>
+        <v>1294</v>
       </c>
       <c r="C474" t="s">
-        <v>63</v>
+        <v>1295</v>
       </c>
       <c r="D474" t="s">
-        <v>63</v>
+        <v>1296</v>
       </c>
       <c r="E474" t="s">
-        <v>63</v>
+        <v>1297</v>
       </c>
       <c r="F474" t="s">
-        <v>63</v>
+        <v>1188</v>
       </c>
       <c r="G474" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1066</v>
+        <v>1298</v>
       </c>
       <c r="B475" t="s">
         <v>63</v>
@@ -16087,7 +16819,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1067</v>
+        <v>1299</v>
       </c>
       <c r="B476" t="s">
         <v>63</v>
@@ -16113,48 +16845,48 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1068</v>
+        <v>1300</v>
       </c>
       <c r="B477" t="s">
-        <v>1069</v>
+        <v>1301</v>
       </c>
       <c r="C477" t="s">
-        <v>1070</v>
+        <v>1302</v>
       </c>
       <c r="D477" t="s">
-        <v>1071</v>
+        <v>1303</v>
       </c>
       <c r="E477" t="s">
-        <v>1072</v>
+        <v>1304</v>
       </c>
       <c r="F477" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G477" t="s">
         <v>14</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1074</v>
+        <v>1306</v>
       </c>
       <c r="B478" t="s">
-        <v>1075</v>
+        <v>1307</v>
       </c>
       <c r="C478" t="s">
-        <v>1076</v>
+        <v>1308</v>
       </c>
       <c r="D478" t="s">
-        <v>1077</v>
+        <v>1309</v>
       </c>
       <c r="E478" t="s">
-        <v>1078</v>
+        <v>1310</v>
       </c>
       <c r="F478" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G478" t="s">
         <v>14</v>
@@ -16165,22 +16897,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1079</v>
+        <v>1311</v>
       </c>
       <c r="B479" t="s">
-        <v>1080</v>
+        <v>1312</v>
       </c>
       <c r="C479" t="s">
-        <v>1081</v>
+        <v>1313</v>
       </c>
       <c r="D479" t="s">
-        <v>1082</v>
+        <v>1314</v>
       </c>
       <c r="E479" t="s">
-        <v>1083</v>
+        <v>1315</v>
       </c>
       <c r="F479" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G479" t="s">
         <v>35</v>
@@ -16191,22 +16923,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1084</v>
+        <v>1316</v>
       </c>
       <c r="B480" t="s">
-        <v>1085</v>
+        <v>1317</v>
       </c>
       <c r="C480" t="s">
-        <v>1086</v>
+        <v>1318</v>
       </c>
       <c r="D480" t="s">
-        <v>1087</v>
+        <v>1319</v>
       </c>
       <c r="E480" t="s">
-        <v>1088</v>
+        <v>1320</v>
       </c>
       <c r="F480" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G480" t="s">
         <v>35</v>
@@ -16217,22 +16949,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1089</v>
+        <v>1321</v>
       </c>
       <c r="B481" t="s">
-        <v>1090</v>
+        <v>1322</v>
       </c>
       <c r="C481" t="s">
-        <v>1091</v>
+        <v>1323</v>
       </c>
       <c r="D481" t="s">
-        <v>1092</v>
+        <v>1324</v>
       </c>
       <c r="E481" t="s">
-        <v>1093</v>
+        <v>1325</v>
       </c>
       <c r="F481" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G481" t="s">
         <v>35</v>
@@ -16243,22 +16975,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1094</v>
+        <v>1326</v>
       </c>
       <c r="B482" t="s">
-        <v>1095</v>
+        <v>1327</v>
       </c>
       <c r="C482" t="s">
-        <v>1096</v>
+        <v>1328</v>
       </c>
       <c r="D482" t="s">
-        <v>1097</v>
+        <v>1329</v>
       </c>
       <c r="E482" t="s">
-        <v>1098</v>
+        <v>1330</v>
       </c>
       <c r="F482" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G482" t="s">
         <v>61</v>
@@ -16269,22 +17001,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1099</v>
+        <v>1331</v>
       </c>
       <c r="B483" t="s">
-        <v>1100</v>
+        <v>1332</v>
       </c>
       <c r="C483" t="s">
-        <v>1101</v>
+        <v>1333</v>
       </c>
       <c r="D483" t="s">
-        <v>1102</v>
+        <v>1334</v>
       </c>
       <c r="E483" t="s">
-        <v>1103</v>
+        <v>1335</v>
       </c>
       <c r="F483" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G483" t="s">
         <v>61</v>
@@ -16295,22 +17027,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1104</v>
+        <v>1336</v>
       </c>
       <c r="B484" t="s">
-        <v>1105</v>
+        <v>1337</v>
       </c>
       <c r="C484" t="s">
-        <v>1106</v>
+        <v>1338</v>
       </c>
       <c r="D484" t="s">
-        <v>1107</v>
+        <v>1339</v>
       </c>
       <c r="E484" t="s">
-        <v>1108</v>
+        <v>1340</v>
       </c>
       <c r="F484" t="s">
-        <v>1073</v>
+        <v>1305</v>
       </c>
       <c r="G484" t="s">
         <v>61</v>
@@ -16321,85 +17053,85 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1109</v>
+        <v>1341</v>
       </c>
       <c r="B485" t="s">
-        <v>63</v>
+        <v>1342</v>
       </c>
       <c r="C485" t="s">
-        <v>63</v>
+        <v>1343</v>
       </c>
       <c r="D485" t="s">
-        <v>63</v>
+        <v>1344</v>
       </c>
       <c r="E485" t="s">
-        <v>63</v>
+        <v>1345</v>
       </c>
       <c r="F485" t="s">
-        <v>63</v>
+        <v>1305</v>
       </c>
       <c r="G485" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1110</v>
+        <v>1346</v>
       </c>
       <c r="B486" t="s">
-        <v>63</v>
+        <v>1347</v>
       </c>
       <c r="C486" t="s">
-        <v>63</v>
+        <v>1348</v>
       </c>
       <c r="D486" t="s">
-        <v>63</v>
+        <v>1349</v>
       </c>
       <c r="E486" t="s">
-        <v>63</v>
+        <v>1350</v>
       </c>
       <c r="F486" t="s">
-        <v>63</v>
+        <v>1305</v>
       </c>
       <c r="G486" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1111</v>
+        <v>1351</v>
       </c>
       <c r="B487" t="s">
-        <v>63</v>
+        <v>1352</v>
       </c>
       <c r="C487" t="s">
-        <v>63</v>
+        <v>1353</v>
       </c>
       <c r="D487" t="s">
-        <v>63</v>
+        <v>1354</v>
       </c>
       <c r="E487" t="s">
-        <v>63</v>
+        <v>1355</v>
       </c>
       <c r="F487" t="s">
-        <v>63</v>
+        <v>1305</v>
       </c>
       <c r="G487" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1112</v>
+        <v>1356</v>
       </c>
       <c r="B488" t="s">
         <v>63</v>
@@ -16425,7 +17157,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1113</v>
+        <v>1357</v>
       </c>
       <c r="B489" t="s">
         <v>63</v>
@@ -16451,7 +17183,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1114</v>
+        <v>1358</v>
       </c>
       <c r="B490" t="s">
         <v>63</v>
@@ -16477,7 +17209,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1115</v>
+        <v>1359</v>
       </c>
       <c r="B491" t="s">
         <v>63</v>
@@ -16503,7 +17235,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1116</v>
+        <v>1360</v>
       </c>
       <c r="B492" t="s">
         <v>63</v>
@@ -16529,7 +17261,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1117</v>
+        <v>1361</v>
       </c>
       <c r="B493" t="s">
         <v>63</v>
@@ -16555,7 +17287,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1118</v>
+        <v>1362</v>
       </c>
       <c r="B494" t="s">
         <v>63</v>
@@ -16581,7 +17313,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1119</v>
+        <v>1363</v>
       </c>
       <c r="B495" t="s">
         <v>63</v>
@@ -16607,7 +17339,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1120</v>
+        <v>1364</v>
       </c>
       <c r="B496" t="s">
         <v>63</v>
@@ -16633,7 +17365,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1121</v>
+        <v>1365</v>
       </c>
       <c r="B497" t="s">
         <v>63</v>
@@ -16659,7 +17391,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1122</v>
+        <v>1366</v>
       </c>
       <c r="B498" t="s">
         <v>63</v>
@@ -16685,7 +17417,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1123</v>
+        <v>1367</v>
       </c>
       <c r="B499" t="s">
         <v>63</v>
@@ -16711,7 +17443,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1124</v>
+        <v>1368</v>
       </c>
       <c r="B500" t="s">
         <v>63</v>
@@ -16737,7 +17469,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1125</v>
+        <v>1369</v>
       </c>
       <c r="B501" t="s">
         <v>63</v>
@@ -16763,7 +17495,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1126</v>
+        <v>1370</v>
       </c>
       <c r="B502" t="s">
         <v>63</v>
